--- a/pdac/GEP_driving_genes.xlsx
+++ b/pdac/GEP_driving_genes.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1857" uniqueCount="1857">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1828" uniqueCount="1828">
   <si>
     <t xml:space="preserve">gene</t>
   </si>
@@ -3810,1699 +3810,1612 @@
     <t xml:space="preserve">UBXN4</t>
   </si>
   <si>
-    <t xml:space="preserve">LAP3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SLFN5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NMI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GOLGB1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CASP1</t>
+    <t xml:space="preserve">CENPF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOP2A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTTG1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MKI67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HMGB2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UBE2C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIRC5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCNB1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NUSAP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KIAA0101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMC4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TPX2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRC1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDKN3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASPM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDC20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAD2L1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANLN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCNB2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KIF20B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CKS2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TK1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HMMR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDK1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CEP55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZWINT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H2AFZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCNA2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CENPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UBE2S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LMNB1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RRM2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DLGAP5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NUF2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CKAP2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AURKA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UBE2T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HMGN2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GTSE1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMC2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPNA2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANP32E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TYMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEK2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TACC3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLK1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HMGB3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CENPK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECT2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H2AFV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KIF23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PBK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CENPA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SGOL2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CENPN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TMPO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAD21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NMU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARHGAP11A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KIF4A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDCA8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KIF2C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NDC80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDCA3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SGOL1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TUBB4B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAD51AP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CASC5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKA2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MZT1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KIF22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCDC34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCAPD2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRR11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GGH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FOXM1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KIF11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPSM2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RACGAP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUB1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MELK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AURKB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FANCI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCAPG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEPDC1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H2AFX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPC25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HJURP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NUCKS1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KNSTRN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IQGAP3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DHFR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CENPM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TROAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KIF14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHF19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TMEM106C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RRM1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CKAP2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIAPH3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LSM5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KIF20A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAM83D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MND1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATAD2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CKAP5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RPA3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDCA5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NUDT1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAPCD2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KIFC1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIS18BP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHSC1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAM111A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPAG5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MYBL2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASF1B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBF4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDC25B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CALM3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKA3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LMNB2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OIP5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HP1BP3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LBR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNASEH2A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPDL1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUB1B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDCA2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRIP13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CENPH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUB3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIS18A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MXD3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORC6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KIAA1524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VRK1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPC24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMC9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRCA1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BCL2L12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITGB3BP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCAPH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HELLS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DDX39A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXOSC8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRCA2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHCBP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LSM3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CBX5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POC1A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEPDC1B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZWILCH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DNAJC9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLSPN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PARPBP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAE1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCAPG2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REEP4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RTKN2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARHGAP11B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRNDE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNF26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDKN2D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDC25C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAM64A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FEN1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EZH2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LSM4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TNFAIP8L1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FANCD2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NDC1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KIF15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RHNO1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSRC1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMC2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RFC3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCNF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KIF18A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNIH4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MNS1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISG20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KLK10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDKN1A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNX9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GULP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TMPRSS2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SDR16C5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DUSP5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IL8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DUOXA2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPNS2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CXCL16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OCLN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CFLAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAB11FIP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRSS22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EPS8L1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLIN3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPRR1B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CXCL3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAP1LC3B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OPTN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FUT3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TUBB2A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABHD11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PARD6B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HMGA1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAD1L1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GLRX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TICAM1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FA2H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TMEM106B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IL2RG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RALA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAFF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLC3A2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLCO4A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PVRL2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXNRD1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPR110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADRM1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCEH1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAP1B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DUSP4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DDIT3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RND3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MYO6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABHD3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NFKBIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IL1RN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQSTM1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUC4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLC9A3R2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASS1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PNPLA2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YWHAH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UBE2D1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TNFRSF12A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRB3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CEBPG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TNIP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MACC1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERPINB2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLC6A14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPRR3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C6orf222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATP6V0B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C20orf24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNF39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ICAM1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F2RL1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNAP23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ERBB2IP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHMP1B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DNAJB9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DNTTIP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FOXO3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSG101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LBH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UFD1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCDC68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HDAC9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MYO5B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSMC4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LPIN2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQRDL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NTHL1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OSER1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SH3KBP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMPDL3A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAB9A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C10orf54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAP30BP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DDA1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLVRB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KLK8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RDH10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PARM1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AVPI1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DPH3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EPS8L3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SREK1IP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IFNGR1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITGB8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KYNU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MLLT4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EHD4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUC20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTPRH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANXA11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP53INP2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HAGH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TJP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YBX1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HSPE1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USMG5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDCD5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MZT2B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNRPD1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATP5J2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COX7A2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NPM1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEC61G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TMA7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UQCRH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HNRNPA2B1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PFDN2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHCHD2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PFN1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COX8A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNRPG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCT5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATP5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COX7B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATP5I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NBEAL1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATP5G3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HNRNPA3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NDUFS6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YWHAE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHFM1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HNRNPH1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EIF3J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNRPD2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEC61B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NDUFB9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NDUFS5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EIF5B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLIRP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MZT2A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNRPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YWHAZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HNRNPC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MRPL52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EIF4A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EIF2S2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HDGF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COX5B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HN1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNRPB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C14orf2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COX6C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UQCRQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EEF1B2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GNAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S100P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YWHAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RANBP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HNRNPU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNRPC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PABPC1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSMB3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUB1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NHP2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIMM8B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C8orf59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HNRNPAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSMB6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SRSF3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NDUFA4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATP5C1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATP5H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROMO1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CACYBP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSBP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COX5A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ILF3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COX17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RHOA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SRSF2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NDUFB4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SYNCRIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCEB1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EIF4G2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAF1D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCT6A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LSM7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOMM5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDR43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EZR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARPC2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PARK7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GADD45GIP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLC25A6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADIRF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GLTSCR2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EIF3L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMMD6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EIF4B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOMM7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMKN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTNNB1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EIF3E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPP3CA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POLR2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLC12A2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TNRC6B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HMGN1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EIF3H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCNI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EIF3F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HMGN3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EIF2S3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTC3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZFP36L1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C1orf56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EIF3K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UQCR10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GABRP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNHG8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMDT1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZKSCAN1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRK1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIGD2A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MRPL51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEDD8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIST1H2BK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAM120A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NDUFB1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANAPC16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MRPS21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DDX17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C9orf16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C1orf21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FKBP1A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATP1B1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MYEOV2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KLF5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FOXP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C19orf53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ST13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NFIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APOBEC3C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRAPPC6A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCDH7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PGLS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LPAR6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUMO1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B4GALT1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHD3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDC42SE1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TMEM141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PBX1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HSBP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SH3YL1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EPB41L4A-AS1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BNIP3L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATF4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HERPUD1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VEGFA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBCK1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENO2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C6orf48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CREBRF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RSL24D1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IRS2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIRBP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SYF2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WSB1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAMLG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P4HA1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KLHL24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C1orf43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MTHFD2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOMM20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EIF1B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAF7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MED10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RMND5A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNHG12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ERRFI1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHF1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLK1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SARS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EIF2A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRIB3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTG1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MXI1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBXO32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HSPA9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STX3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UFM1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCNP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CITED2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TERF2IP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UBE2D3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COPS2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNBP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHD2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAM13A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPIG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PNRC1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AARS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EIF4EBP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEC31A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WBP2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDR45B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERINC2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARF1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SF3B2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YTHDC1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MORF4L2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H1F0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RABGGTB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TGIF1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANKRD37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SRSF5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IGBP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SVIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRD2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GOLGA4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COX7A2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UBXN1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAPOLA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KDM3A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBM39</t>
   </si>
   <si>
     <t xml:space="preserve">CIR1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TPR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTSS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GLRX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GOLGA4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BTG1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ST13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H1F0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HIST1H2AC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CMPK2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C11orf58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRIM22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DUOXA2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RARRES1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUC7L3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OASL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RTP4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAP1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCC2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CENPF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOP2A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PTTG1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MKI67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HMGB2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UBE2C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BIRC5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCNB1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NUSAP1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KIAA0101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMC4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TPX2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRC1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDKN3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASPM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDC20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAD2L1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANLN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCNB2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KIF20B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CKS2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TK1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HMMR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDK1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CEP55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZWINT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H2AFZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCNA2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CENPE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UBE2S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LMNB1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RRM2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DLGAP5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NUF2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CKAP2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AURKA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UBE2T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HMGN2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GTSE1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMC2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPNA2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANP32E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TYMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEK2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TACC3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLK1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HMGB3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CENPK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECT2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H2AFV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KIF23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PBK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CENPA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SGOL2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CENPN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TMPO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAD21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NMU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARHGAP11A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KIF4A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDCA8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KIF2C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NDC80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDCA3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SGOL1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TUBB4B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAD51AP1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CASC5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKA2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MZT1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KIF22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCDC34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NCAPD2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRR11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GGH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FOXM1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KIF11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GPSM2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RACGAP1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BUB1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MELK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AURKB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FANCI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NCAPG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEPDC1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H2AFX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPC25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HJURP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NUCKS1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KNSTRN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IQGAP3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DHFR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CENPM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TROAP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KIF14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PHF19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TMEM106C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RRM1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CKAP2L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIAPH3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LSM5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KIF20A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FAM83D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MND1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATAD2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CKAP5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RPA3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDCA5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NUDT1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAPCD2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KIFC1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MIS18BP1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WHSC1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FAM111A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPAG5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MYBL2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASF1B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DBF4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDC25B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CALM3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKA3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LMNB2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OIP5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP1BP3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LBR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RNASEH2A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPDL1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BUB1B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDCA2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRIP13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CENPH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BUB3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MIS18A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MXD3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORC6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KIAA1524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VRK1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSE1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPC24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMC9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BRCA1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BCL2L12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITGB3BP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NCAPH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HELLS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DDX39A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EXOSC8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BRCA2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SHCBP1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LSM3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CBX5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POC1A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEPDC1B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZWILCH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNAJC9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLSPN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PARPBP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAE1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NCAPG2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REEP4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RTKN2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARHGAP11B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRNDE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RNF26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PTMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDKN2D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDC25C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FAM64A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FEN1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EZH2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LSM4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TNFAIP8L1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FANCD2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NDC1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KIF15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RHNO1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSRC1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CMC2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RFC3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCNF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USP1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KIF18A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNIH4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MNS1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISG20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KLK10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDKN1A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SNX9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GULP1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TMPRSS2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SDR16C5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DUSP5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IL8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPNS2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CXCL16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OCLN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CFLAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAB11FIP1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRSS22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EPS8L1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLIN3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPRR1B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CXCL3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAP1LC3B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OPTN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FUT3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TUBB2A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABHD11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PARD6B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HMGA1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAD1L1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TICAM1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FA2H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TMEM106B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IL2RG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RALA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAFF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SLC3A2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SLCO4A1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PVRL2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TXNRD1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GPR110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADRM1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NCEH1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAP1B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DUSP4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DDIT3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RND3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MYO6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABHD3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NFKBIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IL1RN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SQSTM1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MUC4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SLC9A3R2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASS1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PNPLA2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YWHAH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UBE2D1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SBDS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TNFRSF12A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRB3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CEBPG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TNIP1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MACC1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SELK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SERPINB2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SLC6A14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPRR3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C6orf222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATP6V0B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C20orf24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RNF39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ICAM1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F2RL1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SNAP23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ERBB2IP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHMP1B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNAJB9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNTTIP1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FOXO3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TSG101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LBH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UFD1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCDC68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HDAC9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MYO5B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSMC4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LPIN2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SQRDL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NTHL1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OSER1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SH3KBP1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMPDL3A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAB9A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C10orf54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAP30BP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DDA1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VIMP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BLVRB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KLK8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RDH10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PARM1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AVPI1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DPH3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EPS8L3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SREK1IP1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IFNGR1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITGB8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KYNU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MLLT4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EHD4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MUC20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PTPRH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANXA11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TP53INP2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HAGH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TJP1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NCL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YBX1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HSPE1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USMG5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PDCD5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MZT2B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SNRPD1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATP5J2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COX7A2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NPM1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEC61G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TMA7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UQCRH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HNRNPA2B1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PFDN2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHCHD2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PFN1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COX8A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SNRPG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCT5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATP5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COX7B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATP5I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NBEAL1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATP5G3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HNRNPA3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POMP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NDUFS6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YWHAE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SHFM1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HNRNPH1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EIF3J</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SNRPD2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEC61B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NDUFB9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NDUFS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EIF5B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SLIRP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MZT2A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SNRPE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YWHAZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HNRNPC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MRPL52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EIF4A1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EIF2S2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HDGF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COX5B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HN1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SNRPB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C14orf2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COX6C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UQCRQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EEF1B2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GNAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S100P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YWHAB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RANBP1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HNRNPU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SNRPC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PABPC1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSMB3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUB1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NHP2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIMM8B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C8orf59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HNRNPAB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSMB6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRSF3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NDUFA4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATP5C1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATP5H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROMO1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CACYBP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSBP1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COX5A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ILF3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COX17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RHOA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRSF2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NDUFB4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SYNCRIP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TCEB1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EIF4G2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAF1D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCT6A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LSM7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOMM5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WDR43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EZR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARPC2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PARK7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GADD45GIP1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SLC25A6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADIRF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GLTSCR2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EIF3L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COMMD6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EIF4B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOMM7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DMKN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTNNB1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EIF3E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPP3CA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POLR2L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SLC12A2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TNRC6B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HMGN1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EIF3H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCNI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EIF3F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HMGN3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EIF2S3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTC3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZFP36L1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C1orf56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EIF3K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UQCR10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GABRP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SNHG8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMDT1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZKSCAN1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BRK1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HIGD2A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MRPL51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEDD8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HIST1H2BK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FAM120A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NDUFB1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANAPC16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MRPS21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DDX17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C9orf16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C1orf21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FKBP1A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATP1B1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MYEOV2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KLF5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FOXP1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C19orf53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NFIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APOBEC3C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRAPPC6A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCDH7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PGLS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LPAR6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHP1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUMO1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B4GALT1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHD3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDC42SE1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TMEM141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PBX1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HSBP1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SH3YL1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATRX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NDUFA2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARHGDIB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TBL1XR1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HNRNPUL1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARGLU1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCBP2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C12orf57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSNK1A1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCBD1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADD3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WWTR1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EIF3D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EPB41L4A-AS1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNIP3L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATF4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HERPUD1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VEGFA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBCK1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENO2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C6orf48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CREBRF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RSL24D1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SERP1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IRS2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIRBP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SYF2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WSB1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAMLG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P4HA1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KLHL24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C1orf43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MTHFD2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOMM20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EIF1B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAF7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MED10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RMND5A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SNHG12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ERRFI1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PHF1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLK1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SARS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EIF2A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRIB3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MXI1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FBXO32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HSPA9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STX3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UFM1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCNP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CITED2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TERF2IP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UBE2D3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COPS2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNBP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHD2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FAM13A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPIG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PNRC1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AARS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EIF4EBP1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEC31A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WBP2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WDR45B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SERINC2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARF1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SF3B2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YTHDC1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MORF4L2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RABGGTB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TGIF1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANKRD37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRSF5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IGBP1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SVIP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BRD2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COX7A2L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UBXN1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAPOLA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KDM3A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBM39</t>
   </si>
   <si>
     <t xml:space="preserve">PHF3</t>
@@ -8771,7 +8684,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1285</v>
+        <v>1261</v>
       </c>
       <c r="B2" t="n">
         <v>7.085</v>
@@ -8785,7 +8698,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1286</v>
+        <v>1262</v>
       </c>
       <c r="B3" t="n">
         <v>6.947</v>
@@ -8799,7 +8712,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1287</v>
+        <v>1263</v>
       </c>
       <c r="B4" t="n">
         <v>6.946</v>
@@ -8813,7 +8726,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1288</v>
+        <v>1264</v>
       </c>
       <c r="B5" t="n">
         <v>6.852</v>
@@ -8827,7 +8740,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>1289</v>
+        <v>1265</v>
       </c>
       <c r="B6" t="n">
         <v>6.478</v>
@@ -8841,7 +8754,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>1290</v>
+        <v>1266</v>
       </c>
       <c r="B7" t="n">
         <v>6.252</v>
@@ -8869,7 +8782,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1291</v>
+        <v>1267</v>
       </c>
       <c r="B9" t="n">
         <v>6.063</v>
@@ -8883,7 +8796,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>1292</v>
+        <v>1268</v>
       </c>
       <c r="B10" t="n">
         <v>5.705</v>
@@ -8897,7 +8810,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>1293</v>
+        <v>1269</v>
       </c>
       <c r="B11" t="n">
         <v>5.652</v>
@@ -8911,7 +8824,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>1294</v>
+        <v>1270</v>
       </c>
       <c r="B12" t="n">
         <v>5.501</v>
@@ -8925,7 +8838,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>1295</v>
+        <v>1271</v>
       </c>
       <c r="B13" t="n">
         <v>5.463</v>
@@ -8939,7 +8852,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>1296</v>
+        <v>1272</v>
       </c>
       <c r="B14" t="n">
         <v>5.352</v>
@@ -8953,7 +8866,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>1297</v>
+        <v>1273</v>
       </c>
       <c r="B15" t="n">
         <v>5.326</v>
@@ -8967,7 +8880,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>1298</v>
+        <v>1274</v>
       </c>
       <c r="B16" t="n">
         <v>5.038</v>
@@ -8981,7 +8894,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>1299</v>
+        <v>1275</v>
       </c>
       <c r="B17" t="n">
         <v>5.016</v>
@@ -8995,7 +8908,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>1300</v>
+        <v>1276</v>
       </c>
       <c r="B18" t="n">
         <v>4.924</v>
@@ -9009,7 +8922,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>1301</v>
+        <v>1277</v>
       </c>
       <c r="B19" t="n">
         <v>4.72</v>
@@ -9023,7 +8936,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>1302</v>
+        <v>1278</v>
       </c>
       <c r="B20" t="n">
         <v>4.592</v>
@@ -9037,7 +8950,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>1303</v>
+        <v>1279</v>
       </c>
       <c r="B21" t="n">
         <v>4.589</v>
@@ -9051,7 +8964,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>1304</v>
+        <v>1280</v>
       </c>
       <c r="B22" t="n">
         <v>4.57</v>
@@ -9065,7 +8978,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>1305</v>
+        <v>1281</v>
       </c>
       <c r="B23" t="n">
         <v>4.536</v>
@@ -9079,7 +8992,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>1306</v>
+        <v>1282</v>
       </c>
       <c r="B24" t="n">
         <v>4.423</v>
@@ -9093,7 +9006,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>1307</v>
+        <v>1283</v>
       </c>
       <c r="B25" t="n">
         <v>4.389</v>
@@ -9107,7 +9020,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>1308</v>
+        <v>1284</v>
       </c>
       <c r="B26" t="n">
         <v>4.347</v>
@@ -9121,7 +9034,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>1309</v>
+        <v>1285</v>
       </c>
       <c r="B27" t="n">
         <v>4.304</v>
@@ -9149,7 +9062,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>1310</v>
+        <v>1286</v>
       </c>
       <c r="B29" t="n">
         <v>4.209</v>
@@ -9163,7 +9076,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>1311</v>
+        <v>1287</v>
       </c>
       <c r="B30" t="n">
         <v>4.182</v>
@@ -9191,7 +9104,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>1312</v>
+        <v>1288</v>
       </c>
       <c r="B32" t="n">
         <v>4.089</v>
@@ -9205,7 +9118,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>1313</v>
+        <v>1289</v>
       </c>
       <c r="B33" t="n">
         <v>3.77</v>
@@ -9233,7 +9146,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>1314</v>
+        <v>1290</v>
       </c>
       <c r="B35" t="n">
         <v>3.671</v>
@@ -9247,7 +9160,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>1315</v>
+        <v>1291</v>
       </c>
       <c r="B36" t="n">
         <v>3.669</v>
@@ -9261,7 +9174,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>1316</v>
+        <v>1292</v>
       </c>
       <c r="B37" t="n">
         <v>3.669</v>
@@ -9275,7 +9188,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>1317</v>
+        <v>1293</v>
       </c>
       <c r="B38" t="n">
         <v>3.607</v>
@@ -9289,7 +9202,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>1318</v>
+        <v>1294</v>
       </c>
       <c r="B39" t="n">
         <v>3.6</v>
@@ -9303,7 +9216,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>1319</v>
+        <v>1295</v>
       </c>
       <c r="B40" t="n">
         <v>3.566</v>
@@ -9317,7 +9230,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>1320</v>
+        <v>1296</v>
       </c>
       <c r="B41" t="n">
         <v>3.563</v>
@@ -9331,7 +9244,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>1321</v>
+        <v>1297</v>
       </c>
       <c r="B42" t="n">
         <v>3.535</v>
@@ -9345,7 +9258,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>1322</v>
+        <v>1298</v>
       </c>
       <c r="B43" t="n">
         <v>3.527</v>
@@ -9359,7 +9272,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>1323</v>
+        <v>1299</v>
       </c>
       <c r="B44" t="n">
         <v>3.483</v>
@@ -9373,7 +9286,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>1324</v>
+        <v>1300</v>
       </c>
       <c r="B45" t="n">
         <v>3.474</v>
@@ -9387,7 +9300,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>1325</v>
+        <v>1301</v>
       </c>
       <c r="B46" t="n">
         <v>3.463</v>
@@ -9401,7 +9314,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>1326</v>
+        <v>1302</v>
       </c>
       <c r="B47" t="n">
         <v>3.434</v>
@@ -9415,7 +9328,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>1327</v>
+        <v>1303</v>
       </c>
       <c r="B48" t="n">
         <v>3.414</v>
@@ -9429,7 +9342,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>1328</v>
+        <v>1304</v>
       </c>
       <c r="B49" t="n">
         <v>3.4</v>
@@ -9443,7 +9356,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>1329</v>
+        <v>1305</v>
       </c>
       <c r="B50" t="n">
         <v>3.32</v>
@@ -9457,7 +9370,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>1330</v>
+        <v>1306</v>
       </c>
       <c r="B51" t="n">
         <v>3.28</v>
@@ -9471,7 +9384,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>1331</v>
+        <v>1307</v>
       </c>
       <c r="B52" t="n">
         <v>3.262</v>
@@ -9485,7 +9398,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>1332</v>
+        <v>1308</v>
       </c>
       <c r="B53" t="n">
         <v>3.261</v>
@@ -9499,7 +9412,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>1333</v>
+        <v>1309</v>
       </c>
       <c r="B54" t="n">
         <v>3.25</v>
@@ -9513,7 +9426,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>1334</v>
+        <v>1310</v>
       </c>
       <c r="B55" t="n">
         <v>3.246</v>
@@ -9527,7 +9440,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>1335</v>
+        <v>1311</v>
       </c>
       <c r="B56" t="n">
         <v>3.237</v>
@@ -9541,7 +9454,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>1336</v>
+        <v>1312</v>
       </c>
       <c r="B57" t="n">
         <v>3.22</v>
@@ -9555,7 +9468,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>1337</v>
+        <v>1313</v>
       </c>
       <c r="B58" t="n">
         <v>3.144</v>
@@ -9583,7 +9496,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>1338</v>
+        <v>1314</v>
       </c>
       <c r="B60" t="n">
         <v>3.039</v>
@@ -9597,7 +9510,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>1339</v>
+        <v>1315</v>
       </c>
       <c r="B61" t="n">
         <v>3.033</v>
@@ -9611,7 +9524,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>1340</v>
+        <v>1316</v>
       </c>
       <c r="B62" t="n">
         <v>3.013</v>
@@ -9625,7 +9538,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>1341</v>
+        <v>1317</v>
       </c>
       <c r="B63" t="n">
         <v>2.998</v>
@@ -9639,7 +9552,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>1342</v>
+        <v>1318</v>
       </c>
       <c r="B64" t="n">
         <v>2.994</v>
@@ -9653,7 +9566,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>1343</v>
+        <v>1319</v>
       </c>
       <c r="B65" t="n">
         <v>2.972</v>
@@ -9667,7 +9580,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>1344</v>
+        <v>1320</v>
       </c>
       <c r="B66" t="n">
         <v>2.959</v>
@@ -9681,7 +9594,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>1345</v>
+        <v>1321</v>
       </c>
       <c r="B67" t="n">
         <v>2.941</v>
@@ -9695,7 +9608,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>1346</v>
+        <v>1322</v>
       </c>
       <c r="B68" t="n">
         <v>2.926</v>
@@ -9709,7 +9622,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>1347</v>
+        <v>1323</v>
       </c>
       <c r="B69" t="n">
         <v>2.917</v>
@@ -9723,7 +9636,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>1348</v>
+        <v>1324</v>
       </c>
       <c r="B70" t="n">
         <v>2.898</v>
@@ -9737,7 +9650,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>1349</v>
+        <v>1325</v>
       </c>
       <c r="B71" t="n">
         <v>2.881</v>
@@ -9751,7 +9664,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>1350</v>
+        <v>1326</v>
       </c>
       <c r="B72" t="n">
         <v>2.874</v>
@@ -9765,7 +9678,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>1351</v>
+        <v>1327</v>
       </c>
       <c r="B73" t="n">
         <v>2.861</v>
@@ -9779,7 +9692,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>1352</v>
+        <v>1328</v>
       </c>
       <c r="B74" t="n">
         <v>2.85</v>
@@ -9793,7 +9706,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>1353</v>
+        <v>1329</v>
       </c>
       <c r="B75" t="n">
         <v>2.85</v>
@@ -9807,7 +9720,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>1354</v>
+        <v>1330</v>
       </c>
       <c r="B76" t="n">
         <v>2.849</v>
@@ -9821,7 +9734,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>1355</v>
+        <v>1331</v>
       </c>
       <c r="B77" t="n">
         <v>2.838</v>
@@ -9835,7 +9748,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>1356</v>
+        <v>1332</v>
       </c>
       <c r="B78" t="n">
         <v>2.83</v>
@@ -9849,7 +9762,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>1357</v>
+        <v>1333</v>
       </c>
       <c r="B79" t="n">
         <v>2.767</v>
@@ -9863,7 +9776,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>1358</v>
+        <v>1334</v>
       </c>
       <c r="B80" t="n">
         <v>2.761</v>
@@ -9877,7 +9790,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>1359</v>
+        <v>1335</v>
       </c>
       <c r="B81" t="n">
         <v>2.759</v>
@@ -9891,7 +9804,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>1360</v>
+        <v>1336</v>
       </c>
       <c r="B82" t="n">
         <v>2.73</v>
@@ -9905,7 +9818,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>1361</v>
+        <v>1337</v>
       </c>
       <c r="B83" t="n">
         <v>2.716</v>
@@ -9919,7 +9832,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>1362</v>
+        <v>1338</v>
       </c>
       <c r="B84" t="n">
         <v>2.691</v>
@@ -9933,7 +9846,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>1363</v>
+        <v>1339</v>
       </c>
       <c r="B85" t="n">
         <v>2.68</v>
@@ -9947,7 +9860,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>1364</v>
+        <v>1340</v>
       </c>
       <c r="B86" t="n">
         <v>2.672</v>
@@ -9961,7 +9874,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>1365</v>
+        <v>1341</v>
       </c>
       <c r="B87" t="n">
         <v>2.613</v>
@@ -9975,7 +9888,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>1366</v>
+        <v>1342</v>
       </c>
       <c r="B88" t="n">
         <v>2.605</v>
@@ -10003,7 +9916,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>1367</v>
+        <v>1343</v>
       </c>
       <c r="B90" t="n">
         <v>2.59</v>
@@ -10017,7 +9930,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>1368</v>
+        <v>1344</v>
       </c>
       <c r="B91" t="n">
         <v>2.59</v>
@@ -10031,7 +9944,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>1369</v>
+        <v>1345</v>
       </c>
       <c r="B92" t="n">
         <v>2.577</v>
@@ -10045,7 +9958,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>1370</v>
+        <v>1346</v>
       </c>
       <c r="B93" t="n">
         <v>2.539</v>
@@ -10059,7 +9972,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>1371</v>
+        <v>1347</v>
       </c>
       <c r="B94" t="n">
         <v>2.535</v>
@@ -10073,7 +9986,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>1372</v>
+        <v>1348</v>
       </c>
       <c r="B95" t="n">
         <v>2.513</v>
@@ -10087,7 +10000,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>1373</v>
+        <v>1349</v>
       </c>
       <c r="B96" t="n">
         <v>2.511</v>
@@ -10101,7 +10014,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>1374</v>
+        <v>1350</v>
       </c>
       <c r="B97" t="n">
         <v>2.494</v>
@@ -10115,7 +10028,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>1375</v>
+        <v>1351</v>
       </c>
       <c r="B98" t="n">
         <v>2.472</v>
@@ -10129,7 +10042,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>1376</v>
+        <v>1352</v>
       </c>
       <c r="B99" t="n">
         <v>2.457</v>
@@ -10143,7 +10056,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>1377</v>
+        <v>1353</v>
       </c>
       <c r="B100" t="n">
         <v>2.455</v>
@@ -10171,7 +10084,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>1378</v>
+        <v>1354</v>
       </c>
       <c r="B102" t="n">
         <v>2.441</v>
@@ -10199,7 +10112,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>1379</v>
+        <v>1355</v>
       </c>
       <c r="B104" t="n">
         <v>2.408</v>
@@ -10213,7 +10126,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>1380</v>
+        <v>1356</v>
       </c>
       <c r="B105" t="n">
         <v>2.396</v>
@@ -10227,7 +10140,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>1381</v>
+        <v>1357</v>
       </c>
       <c r="B106" t="n">
         <v>2.374</v>
@@ -10241,7 +10154,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>1382</v>
+        <v>1358</v>
       </c>
       <c r="B107" t="n">
         <v>2.359</v>
@@ -10255,7 +10168,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>1383</v>
+        <v>1359</v>
       </c>
       <c r="B108" t="n">
         <v>2.349</v>
@@ -10269,7 +10182,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>1384</v>
+        <v>1360</v>
       </c>
       <c r="B109" t="n">
         <v>2.327</v>
@@ -10283,7 +10196,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>1385</v>
+        <v>1361</v>
       </c>
       <c r="B110" t="n">
         <v>2.25</v>
@@ -10297,7 +10210,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>1386</v>
+        <v>1362</v>
       </c>
       <c r="B111" t="n">
         <v>2.245</v>
@@ -10311,7 +10224,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>1387</v>
+        <v>1363</v>
       </c>
       <c r="B112" t="n">
         <v>2.241</v>
@@ -10325,7 +10238,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>1388</v>
+        <v>1364</v>
       </c>
       <c r="B113" t="n">
         <v>2.234</v>
@@ -10339,7 +10252,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>1389</v>
+        <v>1365</v>
       </c>
       <c r="B114" t="n">
         <v>2.231</v>
@@ -10353,7 +10266,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>1390</v>
+        <v>1366</v>
       </c>
       <c r="B115" t="n">
         <v>2.228</v>
@@ -10367,7 +10280,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>1391</v>
+        <v>1367</v>
       </c>
       <c r="B116" t="n">
         <v>2.204</v>
@@ -10381,7 +10294,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>1392</v>
+        <v>1368</v>
       </c>
       <c r="B117" t="n">
         <v>2.189</v>
@@ -10395,7 +10308,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>1393</v>
+        <v>1369</v>
       </c>
       <c r="B118" t="n">
         <v>2.187</v>
@@ -10409,7 +10322,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>1394</v>
+        <v>1370</v>
       </c>
       <c r="B119" t="n">
         <v>2.182</v>
@@ -10423,7 +10336,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>1395</v>
+        <v>1371</v>
       </c>
       <c r="B120" t="n">
         <v>2.17</v>
@@ -10437,7 +10350,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>1396</v>
+        <v>1372</v>
       </c>
       <c r="B121" t="n">
         <v>2.167</v>
@@ -10451,7 +10364,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>1397</v>
+        <v>1373</v>
       </c>
       <c r="B122" t="n">
         <v>2.165</v>
@@ -10465,7 +10378,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>1398</v>
+        <v>1374</v>
       </c>
       <c r="B123" t="n">
         <v>2.123</v>
@@ -10479,7 +10392,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>1399</v>
+        <v>1375</v>
       </c>
       <c r="B124" t="n">
         <v>2.121</v>
@@ -10507,7 +10420,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>1400</v>
+        <v>1376</v>
       </c>
       <c r="B126" t="n">
         <v>2.092</v>
@@ -10521,7 +10434,7 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>1401</v>
+        <v>1377</v>
       </c>
       <c r="B127" t="n">
         <v>2.088</v>
@@ -10535,7 +10448,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>1402</v>
+        <v>1378</v>
       </c>
       <c r="B128" t="n">
         <v>2.068</v>
@@ -10549,7 +10462,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>1403</v>
+        <v>1379</v>
       </c>
       <c r="B129" t="n">
         <v>2.066</v>
@@ -10563,7 +10476,7 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>1404</v>
+        <v>1380</v>
       </c>
       <c r="B130" t="n">
         <v>2.015</v>
@@ -10577,7 +10490,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>1405</v>
+        <v>1381</v>
       </c>
       <c r="B131" t="n">
         <v>2.009</v>
@@ -10591,7 +10504,7 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>1406</v>
+        <v>1382</v>
       </c>
       <c r="B132" t="n">
         <v>2.008</v>
@@ -10605,7 +10518,7 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>1407</v>
+        <v>1383</v>
       </c>
       <c r="B133" t="n">
         <v>2.003</v>
@@ -10619,7 +10532,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>1408</v>
+        <v>1384</v>
       </c>
       <c r="B134" t="n">
         <v>2.001</v>
@@ -10633,7 +10546,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>1409</v>
+        <v>1385</v>
       </c>
       <c r="B135" t="n">
         <v>1.995</v>
@@ -10647,7 +10560,7 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>1410</v>
+        <v>1386</v>
       </c>
       <c r="B136" t="n">
         <v>1.994</v>
@@ -10661,7 +10574,7 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>1411</v>
+        <v>1387</v>
       </c>
       <c r="B137" t="n">
         <v>1.983</v>
@@ -10675,7 +10588,7 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>1412</v>
+        <v>1388</v>
       </c>
       <c r="B138" t="n">
         <v>1.965</v>
@@ -10689,7 +10602,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>1413</v>
+        <v>1389</v>
       </c>
       <c r="B139" t="n">
         <v>1.964</v>
@@ -10703,7 +10616,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>1414</v>
+        <v>1390</v>
       </c>
       <c r="B140" t="n">
         <v>1.911</v>
@@ -10717,7 +10630,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>1415</v>
+        <v>1391</v>
       </c>
       <c r="B141" t="n">
         <v>1.891</v>
@@ -10731,7 +10644,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>1416</v>
+        <v>1392</v>
       </c>
       <c r="B142" t="n">
         <v>1.886</v>
@@ -10745,7 +10658,7 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>1417</v>
+        <v>1393</v>
       </c>
       <c r="B143" t="n">
         <v>1.881</v>
@@ -10759,7 +10672,7 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>1418</v>
+        <v>1394</v>
       </c>
       <c r="B144" t="n">
         <v>1.856</v>
@@ -10773,7 +10686,7 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>1419</v>
+        <v>1395</v>
       </c>
       <c r="B145" t="n">
         <v>1.837</v>
@@ -10787,7 +10700,7 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>1420</v>
+        <v>1396</v>
       </c>
       <c r="B146" t="n">
         <v>1.831</v>
@@ -10801,7 +10714,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>1421</v>
+        <v>1397</v>
       </c>
       <c r="B147" t="n">
         <v>1.818</v>
@@ -10815,7 +10728,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>1422</v>
+        <v>1398</v>
       </c>
       <c r="B148" t="n">
         <v>1.788</v>
@@ -10829,7 +10742,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>1423</v>
+        <v>1399</v>
       </c>
       <c r="B149" t="n">
         <v>1.787</v>
@@ -10843,7 +10756,7 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>1424</v>
+        <v>1400</v>
       </c>
       <c r="B150" t="n">
         <v>1.781</v>
@@ -10857,7 +10770,7 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>1425</v>
+        <v>1401</v>
       </c>
       <c r="B151" t="n">
         <v>1.78</v>
@@ -10871,7 +10784,7 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>1426</v>
+        <v>1402</v>
       </c>
       <c r="B152" t="n">
         <v>1.779</v>
@@ -10885,7 +10798,7 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>1427</v>
+        <v>1403</v>
       </c>
       <c r="B153" t="n">
         <v>1.775</v>
@@ -10899,7 +10812,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>1428</v>
+        <v>1404</v>
       </c>
       <c r="B154" t="n">
         <v>1.754</v>
@@ -10913,7 +10826,7 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>1429</v>
+        <v>1405</v>
       </c>
       <c r="B155" t="n">
         <v>1.74</v>
@@ -10927,7 +10840,7 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>1430</v>
+        <v>1406</v>
       </c>
       <c r="B156" t="n">
         <v>1.724</v>
@@ -10941,7 +10854,7 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>1431</v>
+        <v>1407</v>
       </c>
       <c r="B157" t="n">
         <v>1.712</v>
@@ -10955,7 +10868,7 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>1432</v>
+        <v>1408</v>
       </c>
       <c r="B158" t="n">
         <v>1.712</v>
@@ -10969,7 +10882,7 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>1433</v>
+        <v>1409</v>
       </c>
       <c r="B159" t="n">
         <v>1.701</v>
@@ -10983,7 +10896,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>1434</v>
+        <v>1410</v>
       </c>
       <c r="B160" t="n">
         <v>1.699</v>
@@ -10997,7 +10910,7 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>1435</v>
+        <v>1411</v>
       </c>
       <c r="B161" t="n">
         <v>1.692</v>
@@ -11011,7 +10924,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>1436</v>
+        <v>1412</v>
       </c>
       <c r="B162" t="n">
         <v>1.683</v>
@@ -11025,7 +10938,7 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>1437</v>
+        <v>1413</v>
       </c>
       <c r="B163" t="n">
         <v>1.68</v>
@@ -11053,7 +10966,7 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>1438</v>
+        <v>1414</v>
       </c>
       <c r="B165" t="n">
         <v>1.66</v>
@@ -11067,7 +10980,7 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>1439</v>
+        <v>1415</v>
       </c>
       <c r="B166" t="n">
         <v>1.658</v>
@@ -11081,7 +10994,7 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>1440</v>
+        <v>1416</v>
       </c>
       <c r="B167" t="n">
         <v>1.657</v>
@@ -11095,7 +11008,7 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>1441</v>
+        <v>1417</v>
       </c>
       <c r="B168" t="n">
         <v>1.651</v>
@@ -11109,7 +11022,7 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>1442</v>
+        <v>1418</v>
       </c>
       <c r="B169" t="n">
         <v>1.65</v>
@@ -11123,7 +11036,7 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>1443</v>
+        <v>1419</v>
       </c>
       <c r="B170" t="n">
         <v>1.648</v>
@@ -11137,7 +11050,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>1444</v>
+        <v>1420</v>
       </c>
       <c r="B171" t="n">
         <v>1.635</v>
@@ -11151,7 +11064,7 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>1445</v>
+        <v>1421</v>
       </c>
       <c r="B172" t="n">
         <v>1.622</v>
@@ -11165,7 +11078,7 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>1446</v>
+        <v>1422</v>
       </c>
       <c r="B173" t="n">
         <v>1.62</v>
@@ -11179,7 +11092,7 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>1447</v>
+        <v>1423</v>
       </c>
       <c r="B174" t="n">
         <v>1.593</v>
@@ -11207,7 +11120,7 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>1448</v>
+        <v>1424</v>
       </c>
       <c r="B176" t="n">
         <v>1.583</v>
@@ -11221,7 +11134,7 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>1449</v>
+        <v>1425</v>
       </c>
       <c r="B177" t="n">
         <v>1.582</v>
@@ -11249,7 +11162,7 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>1450</v>
+        <v>1426</v>
       </c>
       <c r="B179" t="n">
         <v>1.576</v>
@@ -11263,7 +11176,7 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>1451</v>
+        <v>1427</v>
       </c>
       <c r="B180" t="n">
         <v>1.563</v>
@@ -11277,7 +11190,7 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>1452</v>
+        <v>1428</v>
       </c>
       <c r="B181" t="n">
         <v>1.558</v>
@@ -11291,7 +11204,7 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>1453</v>
+        <v>1429</v>
       </c>
       <c r="B182" t="n">
         <v>1.557</v>
@@ -11305,7 +11218,7 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>1454</v>
+        <v>1430</v>
       </c>
       <c r="B183" t="n">
         <v>1.556</v>
@@ -11319,7 +11232,7 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>1455</v>
+        <v>1431</v>
       </c>
       <c r="B184" t="n">
         <v>1.541</v>
@@ -11333,7 +11246,7 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>1456</v>
+        <v>1432</v>
       </c>
       <c r="B185" t="n">
         <v>1.527</v>
@@ -11347,7 +11260,7 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>1457</v>
+        <v>1433</v>
       </c>
       <c r="B186" t="n">
         <v>1.526</v>
@@ -11361,7 +11274,7 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>1458</v>
+        <v>1434</v>
       </c>
       <c r="B187" t="n">
         <v>1.518</v>
@@ -11375,7 +11288,7 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>1459</v>
+        <v>1435</v>
       </c>
       <c r="B188" t="n">
         <v>1.517</v>
@@ -11389,7 +11302,7 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>1460</v>
+        <v>1436</v>
       </c>
       <c r="B189" t="n">
         <v>1.515</v>
@@ -11403,7 +11316,7 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>1461</v>
+        <v>1437</v>
       </c>
       <c r="B190" t="n">
         <v>1.51</v>
@@ -11417,7 +11330,7 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>1462</v>
+        <v>1438</v>
       </c>
       <c r="B191" t="n">
         <v>1.504</v>
@@ -11431,7 +11344,7 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>1463</v>
+        <v>1439</v>
       </c>
       <c r="B192" t="n">
         <v>1.503</v>
@@ -11445,7 +11358,7 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>1464</v>
+        <v>1440</v>
       </c>
       <c r="B193" t="n">
         <v>1.5</v>
@@ -11459,7 +11372,7 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>1465</v>
+        <v>1441</v>
       </c>
       <c r="B194" t="n">
         <v>1.492</v>
@@ -11473,7 +11386,7 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>1466</v>
+        <v>1442</v>
       </c>
       <c r="B195" t="n">
         <v>1.49</v>
@@ -11487,7 +11400,7 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>1467</v>
+        <v>1443</v>
       </c>
       <c r="B196" t="n">
         <v>1.488</v>
@@ -11501,7 +11414,7 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>1468</v>
+        <v>1444</v>
       </c>
       <c r="B197" t="n">
         <v>1.477</v>
@@ -11529,7 +11442,7 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>1469</v>
+        <v>1445</v>
       </c>
       <c r="B199" t="n">
         <v>1.431</v>
@@ -11543,7 +11456,7 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>1470</v>
+        <v>1446</v>
       </c>
       <c r="B200" t="n">
         <v>1.431</v>
@@ -11557,7 +11470,7 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>1471</v>
+        <v>1447</v>
       </c>
       <c r="B201" t="n">
         <v>1.426</v>
@@ -11599,7 +11512,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1472</v>
+        <v>1448</v>
       </c>
       <c r="B2" t="n">
         <v>3.457</v>
@@ -11669,7 +11582,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>1473</v>
+        <v>1449</v>
       </c>
       <c r="B7" t="n">
         <v>2.719</v>
@@ -11697,7 +11610,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1474</v>
+        <v>1450</v>
       </c>
       <c r="B9" t="n">
         <v>2.684</v>
@@ -11711,7 +11624,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>1475</v>
+        <v>1451</v>
       </c>
       <c r="B10" t="n">
         <v>2.597</v>
@@ -11725,7 +11638,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>1476</v>
+        <v>1452</v>
       </c>
       <c r="B11" t="n">
         <v>2.588</v>
@@ -11753,7 +11666,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>1477</v>
+        <v>1453</v>
       </c>
       <c r="B13" t="n">
         <v>2.474</v>
@@ -11767,7 +11680,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>1478</v>
+        <v>1454</v>
       </c>
       <c r="B14" t="n">
         <v>2.457</v>
@@ -11809,7 +11722,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>1479</v>
+        <v>1455</v>
       </c>
       <c r="B17" t="n">
         <v>2.323</v>
@@ -11879,7 +11792,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>1283</v>
+        <v>1456</v>
       </c>
       <c r="B22" t="n">
         <v>2.136</v>
@@ -11893,7 +11806,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>1480</v>
+        <v>1457</v>
       </c>
       <c r="B23" t="n">
         <v>2.134</v>
@@ -11907,7 +11820,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>1278</v>
+        <v>1458</v>
       </c>
       <c r="B24" t="n">
         <v>2.101</v>
@@ -11921,7 +11834,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>1481</v>
+        <v>1459</v>
       </c>
       <c r="B25" t="n">
         <v>2.098</v>
@@ -11963,7 +11876,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>1482</v>
+        <v>1460</v>
       </c>
       <c r="B28" t="n">
         <v>2.06</v>
@@ -11991,7 +11904,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>1483</v>
+        <v>1461</v>
       </c>
       <c r="B30" t="n">
         <v>1.998</v>
@@ -12005,7 +11918,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>1484</v>
+        <v>1462</v>
       </c>
       <c r="B31" t="n">
         <v>1.998</v>
@@ -12019,7 +11932,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>1485</v>
+        <v>1463</v>
       </c>
       <c r="B32" t="n">
         <v>1.984</v>
@@ -12061,7 +11974,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>1486</v>
+        <v>1464</v>
       </c>
       <c r="B35" t="n">
         <v>1.96</v>
@@ -12075,7 +11988,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>1487</v>
+        <v>1465</v>
       </c>
       <c r="B36" t="n">
         <v>1.952</v>
@@ -12103,7 +12016,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>1488</v>
+        <v>1466</v>
       </c>
       <c r="B38" t="n">
         <v>1.904</v>
@@ -12117,7 +12030,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>1489</v>
+        <v>1467</v>
       </c>
       <c r="B39" t="n">
         <v>1.904</v>
@@ -12131,7 +12044,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>1490</v>
+        <v>1468</v>
       </c>
       <c r="B40" t="n">
         <v>1.895</v>
@@ -12145,7 +12058,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>1491</v>
+        <v>1469</v>
       </c>
       <c r="B41" t="n">
         <v>1.888</v>
@@ -12159,7 +12072,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>1492</v>
+        <v>1470</v>
       </c>
       <c r="B42" t="n">
         <v>1.87</v>
@@ -12215,7 +12128,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>1493</v>
+        <v>1471</v>
       </c>
       <c r="B46" t="n">
         <v>1.834</v>
@@ -12229,7 +12142,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>1494</v>
+        <v>1472</v>
       </c>
       <c r="B47" t="n">
         <v>1.805</v>
@@ -12285,7 +12198,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>1495</v>
+        <v>1473</v>
       </c>
       <c r="B51" t="n">
         <v>1.789</v>
@@ -12327,7 +12240,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>1496</v>
+        <v>1474</v>
       </c>
       <c r="B54" t="n">
         <v>1.748</v>
@@ -12369,7 +12282,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>1497</v>
+        <v>1475</v>
       </c>
       <c r="B57" t="n">
         <v>1.735</v>
@@ -12397,7 +12310,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>1498</v>
+        <v>1476</v>
       </c>
       <c r="B59" t="n">
         <v>1.726</v>
@@ -12411,7 +12324,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>1269</v>
+        <v>1477</v>
       </c>
       <c r="B60" t="n">
         <v>1.725</v>
@@ -12439,7 +12352,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>1499</v>
+        <v>1478</v>
       </c>
       <c r="B62" t="n">
         <v>1.681</v>
@@ -12453,7 +12366,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>1500</v>
+        <v>1479</v>
       </c>
       <c r="B63" t="n">
         <v>1.676</v>
@@ -12467,7 +12380,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>1501</v>
+        <v>1480</v>
       </c>
       <c r="B64" t="n">
         <v>1.676</v>
@@ -12481,7 +12394,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>1502</v>
+        <v>1481</v>
       </c>
       <c r="B65" t="n">
         <v>1.675</v>
@@ -12495,7 +12408,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>1503</v>
+        <v>1482</v>
       </c>
       <c r="B66" t="n">
         <v>1.663</v>
@@ -12523,7 +12436,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>1504</v>
+        <v>1483</v>
       </c>
       <c r="B68" t="n">
         <v>1.655</v>
@@ -12565,7 +12478,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>1505</v>
+        <v>1484</v>
       </c>
       <c r="B71" t="n">
         <v>1.649</v>
@@ -12579,7 +12492,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>1506</v>
+        <v>1485</v>
       </c>
       <c r="B72" t="n">
         <v>1.643</v>
@@ -12607,7 +12520,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>1507</v>
+        <v>1486</v>
       </c>
       <c r="B74" t="n">
         <v>1.634</v>
@@ -12649,7 +12562,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>1508</v>
+        <v>1487</v>
       </c>
       <c r="B77" t="n">
         <v>1.614</v>
@@ -12663,7 +12576,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>1509</v>
+        <v>1488</v>
       </c>
       <c r="B78" t="n">
         <v>1.611</v>
@@ -12677,7 +12590,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>1510</v>
+        <v>1489</v>
       </c>
       <c r="B79" t="n">
         <v>1.61</v>
@@ -12719,7 +12632,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>1511</v>
+        <v>1490</v>
       </c>
       <c r="B82" t="n">
         <v>1.591</v>
@@ -12733,7 +12646,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>1512</v>
+        <v>1491</v>
       </c>
       <c r="B83" t="n">
         <v>1.575</v>
@@ -12747,7 +12660,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>1513</v>
+        <v>1492</v>
       </c>
       <c r="B84" t="n">
         <v>1.57</v>
@@ -12761,7 +12674,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>1514</v>
+        <v>1493</v>
       </c>
       <c r="B85" t="n">
         <v>1.566</v>
@@ -12817,7 +12730,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>1515</v>
+        <v>1494</v>
       </c>
       <c r="B89" t="n">
         <v>1.556</v>
@@ -12831,7 +12744,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>1516</v>
+        <v>1495</v>
       </c>
       <c r="B90" t="n">
         <v>1.552</v>
@@ -12845,7 +12758,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>1517</v>
+        <v>1496</v>
       </c>
       <c r="B91" t="n">
         <v>1.545</v>
@@ -12859,7 +12772,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>1518</v>
+        <v>1497</v>
       </c>
       <c r="B92" t="n">
         <v>1.539</v>
@@ -12929,7 +12842,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>1519</v>
+        <v>1498</v>
       </c>
       <c r="B97" t="n">
         <v>1.489</v>
@@ -12957,7 +12870,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>1520</v>
+        <v>1499</v>
       </c>
       <c r="B99" t="n">
         <v>1.478</v>
@@ -12971,7 +12884,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>1521</v>
+        <v>1500</v>
       </c>
       <c r="B100" t="n">
         <v>1.478</v>
@@ -12999,7 +12912,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>1522</v>
+        <v>1501</v>
       </c>
       <c r="B102" t="n">
         <v>1.456</v>
@@ -13027,7 +12940,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>1523</v>
+        <v>1502</v>
       </c>
       <c r="B104" t="n">
         <v>1.442</v>
@@ -13083,7 +12996,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>1524</v>
+        <v>1503</v>
       </c>
       <c r="B108" t="n">
         <v>1.426</v>
@@ -13153,7 +13066,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>1525</v>
+        <v>1504</v>
       </c>
       <c r="B113" t="n">
         <v>1.406</v>
@@ -13167,7 +13080,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>1526</v>
+        <v>1505</v>
       </c>
       <c r="B114" t="n">
         <v>1.405</v>
@@ -13209,7 +13122,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>1527</v>
+        <v>1506</v>
       </c>
       <c r="B117" t="n">
         <v>1.396</v>
@@ -13251,7 +13164,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>1528</v>
+        <v>1507</v>
       </c>
       <c r="B120" t="n">
         <v>1.383</v>
@@ -13293,7 +13206,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>1529</v>
+        <v>1508</v>
       </c>
       <c r="B123" t="n">
         <v>1.376</v>
@@ -13307,7 +13220,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>1530</v>
+        <v>1509</v>
       </c>
       <c r="B124" t="n">
         <v>1.376</v>
@@ -13321,7 +13234,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>1531</v>
+        <v>1510</v>
       </c>
       <c r="B125" t="n">
         <v>1.374</v>
@@ -13335,7 +13248,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>1532</v>
+        <v>1511</v>
       </c>
       <c r="B126" t="n">
         <v>1.366</v>
@@ -13349,7 +13262,7 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>1533</v>
+        <v>1512</v>
       </c>
       <c r="B127" t="n">
         <v>1.365</v>
@@ -13391,7 +13304,7 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>1534</v>
+        <v>1513</v>
       </c>
       <c r="B130" t="n">
         <v>1.354</v>
@@ -13405,7 +13318,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>1535</v>
+        <v>1514</v>
       </c>
       <c r="B131" t="n">
         <v>1.353</v>
@@ -13433,7 +13346,7 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>1536</v>
+        <v>1515</v>
       </c>
       <c r="B133" t="n">
         <v>1.348</v>
@@ -13489,7 +13402,7 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>1537</v>
+        <v>1516</v>
       </c>
       <c r="B137" t="n">
         <v>1.336</v>
@@ -13517,7 +13430,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>1538</v>
+        <v>1517</v>
       </c>
       <c r="B139" t="n">
         <v>1.333</v>
@@ -13531,7 +13444,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>1539</v>
+        <v>1518</v>
       </c>
       <c r="B140" t="n">
         <v>1.333</v>
@@ -13545,7 +13458,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>1540</v>
+        <v>1519</v>
       </c>
       <c r="B141" t="n">
         <v>1.331</v>
@@ -13587,7 +13500,7 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>1541</v>
+        <v>1520</v>
       </c>
       <c r="B144" t="n">
         <v>1.324</v>
@@ -13643,7 +13556,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>1542</v>
+        <v>1521</v>
       </c>
       <c r="B148" t="n">
         <v>1.308</v>
@@ -13657,7 +13570,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>1543</v>
+        <v>1522</v>
       </c>
       <c r="B149" t="n">
         <v>1.308</v>
@@ -13671,7 +13584,7 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>1544</v>
+        <v>1523</v>
       </c>
       <c r="B150" t="n">
         <v>1.307</v>
@@ -13699,7 +13612,7 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>1545</v>
+        <v>1524</v>
       </c>
       <c r="B152" t="n">
         <v>1.303</v>
@@ -13727,7 +13640,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>1546</v>
+        <v>1525</v>
       </c>
       <c r="B154" t="n">
         <v>1.3</v>
@@ -13741,7 +13654,7 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>1547</v>
+        <v>1526</v>
       </c>
       <c r="B155" t="n">
         <v>1.287</v>
@@ -13755,7 +13668,7 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>1548</v>
+        <v>1527</v>
       </c>
       <c r="B156" t="n">
         <v>1.283</v>
@@ -13769,7 +13682,7 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>1549</v>
+        <v>1528</v>
       </c>
       <c r="B157" t="n">
         <v>1.277</v>
@@ -13783,7 +13696,7 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>1550</v>
+        <v>1529</v>
       </c>
       <c r="B158" t="n">
         <v>1.274</v>
@@ -13797,7 +13710,7 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>1551</v>
+        <v>1530</v>
       </c>
       <c r="B159" t="n">
         <v>1.267</v>
@@ -13811,7 +13724,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>1552</v>
+        <v>1531</v>
       </c>
       <c r="B160" t="n">
         <v>1.264</v>
@@ -13825,7 +13738,7 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>1553</v>
+        <v>1532</v>
       </c>
       <c r="B161" t="n">
         <v>1.257</v>
@@ -13839,7 +13752,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>1554</v>
+        <v>1533</v>
       </c>
       <c r="B162" t="n">
         <v>1.257</v>
@@ -13853,7 +13766,7 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>1555</v>
+        <v>1534</v>
       </c>
       <c r="B163" t="n">
         <v>1.256</v>
@@ -13867,7 +13780,7 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>1556</v>
+        <v>1535</v>
       </c>
       <c r="B164" t="n">
         <v>1.244</v>
@@ -13881,7 +13794,7 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>1557</v>
+        <v>1536</v>
       </c>
       <c r="B165" t="n">
         <v>1.241</v>
@@ -13909,7 +13822,7 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>1558</v>
+        <v>1537</v>
       </c>
       <c r="B167" t="n">
         <v>1.24</v>
@@ -13951,7 +13864,7 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>1559</v>
+        <v>1538</v>
       </c>
       <c r="B170" t="n">
         <v>1.239</v>
@@ -13979,7 +13892,7 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>1560</v>
+        <v>1539</v>
       </c>
       <c r="B172" t="n">
         <v>1.236</v>
@@ -13993,7 +13906,7 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>1561</v>
+        <v>1540</v>
       </c>
       <c r="B173" t="n">
         <v>1.233</v>
@@ -14007,7 +13920,7 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>1562</v>
+        <v>1541</v>
       </c>
       <c r="B174" t="n">
         <v>1.231</v>
@@ -14021,7 +13934,7 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>1563</v>
+        <v>1542</v>
       </c>
       <c r="B175" t="n">
         <v>1.228</v>
@@ -14035,7 +13948,7 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>1564</v>
+        <v>1543</v>
       </c>
       <c r="B176" t="n">
         <v>1.224</v>
@@ -14049,7 +13962,7 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>1565</v>
+        <v>1544</v>
       </c>
       <c r="B177" t="n">
         <v>1.205</v>
@@ -14063,7 +13976,7 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>1566</v>
+        <v>1545</v>
       </c>
       <c r="B178" t="n">
         <v>1.205</v>
@@ -14077,7 +13990,7 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>1567</v>
+        <v>1546</v>
       </c>
       <c r="B179" t="n">
         <v>1.204</v>
@@ -14105,7 +14018,7 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>1568</v>
+        <v>1547</v>
       </c>
       <c r="B181" t="n">
         <v>1.2</v>
@@ -14119,7 +14032,7 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>1569</v>
+        <v>1548</v>
       </c>
       <c r="B182" t="n">
         <v>1.193</v>
@@ -14133,7 +14046,7 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>1570</v>
+        <v>1549</v>
       </c>
       <c r="B183" t="n">
         <v>1.189</v>
@@ -14147,7 +14060,7 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>1571</v>
+        <v>1550</v>
       </c>
       <c r="B184" t="n">
         <v>1.181</v>
@@ -14175,7 +14088,7 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>1572</v>
+        <v>1551</v>
       </c>
       <c r="B186" t="n">
         <v>1.179</v>
@@ -14189,7 +14102,7 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>1573</v>
+        <v>1552</v>
       </c>
       <c r="B187" t="n">
         <v>1.175</v>
@@ -14203,7 +14116,7 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>1574</v>
+        <v>1553</v>
       </c>
       <c r="B188" t="n">
         <v>1.164</v>
@@ -14217,7 +14130,7 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>1575</v>
+        <v>1554</v>
       </c>
       <c r="B189" t="n">
         <v>1.158</v>
@@ -14231,7 +14144,7 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>1576</v>
+        <v>1555</v>
       </c>
       <c r="B190" t="n">
         <v>1.158</v>
@@ -14245,7 +14158,7 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>1577</v>
+        <v>1556</v>
       </c>
       <c r="B191" t="n">
         <v>1.158</v>
@@ -14259,7 +14172,7 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>1578</v>
+        <v>1557</v>
       </c>
       <c r="B192" t="n">
         <v>1.156</v>
@@ -14273,7 +14186,7 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>1579</v>
+        <v>1558</v>
       </c>
       <c r="B193" t="n">
         <v>1.154</v>
@@ -14287,7 +14200,7 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>1580</v>
+        <v>1559</v>
       </c>
       <c r="B194" t="n">
         <v>1.139</v>
@@ -14301,7 +14214,7 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>1581</v>
+        <v>1560</v>
       </c>
       <c r="B195" t="n">
         <v>1.137</v>
@@ -14315,7 +14228,7 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>1582</v>
+        <v>1561</v>
       </c>
       <c r="B196" t="n">
         <v>1.13</v>
@@ -14329,7 +14242,7 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>1583</v>
+        <v>1562</v>
       </c>
       <c r="B197" t="n">
         <v>1.125</v>
@@ -14357,7 +14270,7 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>1584</v>
+        <v>1563</v>
       </c>
       <c r="B199" t="n">
         <v>1.123</v>
@@ -14371,7 +14284,7 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>1585</v>
+        <v>1564</v>
       </c>
       <c r="B200" t="n">
         <v>1.122</v>
@@ -14441,7 +14354,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1586</v>
+        <v>1565</v>
       </c>
       <c r="B3" t="n">
         <v>2.085</v>
@@ -14525,7 +14438,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1497</v>
+        <v>1475</v>
       </c>
       <c r="B9" t="n">
         <v>1.865</v>
@@ -14609,7 +14522,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>1587</v>
+        <v>1566</v>
       </c>
       <c r="B15" t="n">
         <v>1.712</v>
@@ -14679,7 +14592,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>1588</v>
+        <v>1567</v>
       </c>
       <c r="B20" t="n">
         <v>1.634</v>
@@ -14721,7 +14634,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>1589</v>
+        <v>1568</v>
       </c>
       <c r="B23" t="n">
         <v>1.601</v>
@@ -14763,7 +14676,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>1590</v>
+        <v>1569</v>
       </c>
       <c r="B26" t="n">
         <v>1.498</v>
@@ -14777,7 +14690,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>1591</v>
+        <v>1570</v>
       </c>
       <c r="B27" t="n">
         <v>1.491</v>
@@ -14791,7 +14704,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>1287</v>
+        <v>1263</v>
       </c>
       <c r="B28" t="n">
         <v>1.487</v>
@@ -14847,7 +14760,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>1592</v>
+        <v>1571</v>
       </c>
       <c r="B32" t="n">
         <v>1.469</v>
@@ -14875,7 +14788,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>1593</v>
+        <v>1572</v>
       </c>
       <c r="B34" t="n">
         <v>1.446</v>
@@ -14889,7 +14802,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>1594</v>
+        <v>1573</v>
       </c>
       <c r="B35" t="n">
         <v>1.439</v>
@@ -14945,7 +14858,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>1595</v>
+        <v>1574</v>
       </c>
       <c r="B39" t="n">
         <v>1.403</v>
@@ -14959,7 +14872,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>1596</v>
+        <v>1575</v>
       </c>
       <c r="B40" t="n">
         <v>1.4</v>
@@ -14973,7 +14886,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>1597</v>
+        <v>1576</v>
       </c>
       <c r="B41" t="n">
         <v>1.398</v>
@@ -14987,7 +14900,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>1598</v>
+        <v>1577</v>
       </c>
       <c r="B42" t="n">
         <v>1.397</v>
@@ -15001,7 +14914,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>1599</v>
+        <v>1578</v>
       </c>
       <c r="B43" t="n">
         <v>1.396</v>
@@ -15057,7 +14970,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>1600</v>
+        <v>1579</v>
       </c>
       <c r="B47" t="n">
         <v>1.372</v>
@@ -15071,7 +14984,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>1601</v>
+        <v>1580</v>
       </c>
       <c r="B48" t="n">
         <v>1.371</v>
@@ -15085,7 +14998,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>1602</v>
+        <v>1581</v>
       </c>
       <c r="B49" t="n">
         <v>1.363</v>
@@ -15127,7 +15040,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>1603</v>
+        <v>1582</v>
       </c>
       <c r="B52" t="n">
         <v>1.328</v>
@@ -15155,7 +15068,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>1604</v>
+        <v>1583</v>
       </c>
       <c r="B54" t="n">
         <v>1.32</v>
@@ -15211,7 +15124,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>1311</v>
+        <v>1287</v>
       </c>
       <c r="B58" t="n">
         <v>1.301</v>
@@ -15351,7 +15264,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>1605</v>
+        <v>1584</v>
       </c>
       <c r="B68" t="n">
         <v>1.217</v>
@@ -15365,7 +15278,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>1606</v>
+        <v>1585</v>
       </c>
       <c r="B69" t="n">
         <v>1.213</v>
@@ -15407,7 +15320,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>1607</v>
+        <v>1586</v>
       </c>
       <c r="B72" t="n">
         <v>1.204</v>
@@ -15421,7 +15334,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>1608</v>
+        <v>1587</v>
       </c>
       <c r="B73" t="n">
         <v>1.201</v>
@@ -15435,7 +15348,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>1609</v>
+        <v>1588</v>
       </c>
       <c r="B74" t="n">
         <v>1.196</v>
@@ -15449,7 +15362,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>1610</v>
+        <v>1589</v>
       </c>
       <c r="B75" t="n">
         <v>1.193</v>
@@ -15463,7 +15376,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>1611</v>
+        <v>1590</v>
       </c>
       <c r="B76" t="n">
         <v>1.187</v>
@@ -15477,7 +15390,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>1612</v>
+        <v>1591</v>
       </c>
       <c r="B77" t="n">
         <v>1.18</v>
@@ -15491,7 +15404,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>1613</v>
+        <v>1592</v>
       </c>
       <c r="B78" t="n">
         <v>1.159</v>
@@ -15505,7 +15418,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>1614</v>
+        <v>1593</v>
       </c>
       <c r="B79" t="n">
         <v>1.156</v>
@@ -15561,7 +15474,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>1615</v>
+        <v>1594</v>
       </c>
       <c r="B83" t="n">
         <v>1.139</v>
@@ -15575,7 +15488,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>1616</v>
+        <v>1595</v>
       </c>
       <c r="B84" t="n">
         <v>1.139</v>
@@ -15603,7 +15516,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>1617</v>
+        <v>1596</v>
       </c>
       <c r="B86" t="n">
         <v>1.133</v>
@@ -15617,7 +15530,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>1618</v>
+        <v>1597</v>
       </c>
       <c r="B87" t="n">
         <v>1.13</v>
@@ -15631,7 +15544,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>1619</v>
+        <v>1598</v>
       </c>
       <c r="B88" t="n">
         <v>1.13</v>
@@ -15645,7 +15558,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>1620</v>
+        <v>1599</v>
       </c>
       <c r="B89" t="n">
         <v>1.129</v>
@@ -15659,7 +15572,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>1621</v>
+        <v>1600</v>
       </c>
       <c r="B90" t="n">
         <v>1.128</v>
@@ -15687,7 +15600,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>1622</v>
+        <v>1601</v>
       </c>
       <c r="B92" t="n">
         <v>1.121</v>
@@ -15701,7 +15614,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>1623</v>
+        <v>1602</v>
       </c>
       <c r="B93" t="n">
         <v>1.12</v>
@@ -15757,7 +15670,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>1624</v>
+        <v>1603</v>
       </c>
       <c r="B97" t="n">
         <v>1.109</v>
@@ -15799,7 +15712,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>1305</v>
+        <v>1281</v>
       </c>
       <c r="B100" t="n">
         <v>1.09</v>
@@ -15813,7 +15726,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>1625</v>
+        <v>1604</v>
       </c>
       <c r="B101" t="n">
         <v>1.085</v>
@@ -15827,7 +15740,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>1626</v>
+        <v>1605</v>
       </c>
       <c r="B102" t="n">
         <v>1.084</v>
@@ -15841,7 +15754,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>1322</v>
+        <v>1298</v>
       </c>
       <c r="B103" t="n">
         <v>1.082</v>
@@ -15855,7 +15768,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>1627</v>
+        <v>1606</v>
       </c>
       <c r="B104" t="n">
         <v>1.082</v>
@@ -15883,7 +15796,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>1628</v>
+        <v>1607</v>
       </c>
       <c r="B106" t="n">
         <v>1.081</v>
@@ -15911,7 +15824,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>1629</v>
+        <v>1608</v>
       </c>
       <c r="B108" t="n">
         <v>1.08</v>
@@ -15939,7 +15852,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>1630</v>
+        <v>1609</v>
       </c>
       <c r="B110" t="n">
         <v>1.073</v>
@@ -15953,7 +15866,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>1631</v>
+        <v>1610</v>
       </c>
       <c r="B111" t="n">
         <v>1.072</v>
@@ -15981,7 +15894,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>1490</v>
+        <v>1468</v>
       </c>
       <c r="B113" t="n">
         <v>1.069</v>
@@ -16009,7 +15922,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>1632</v>
+        <v>1611</v>
       </c>
       <c r="B115" t="n">
         <v>1.057</v>
@@ -16023,7 +15936,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>1633</v>
+        <v>1612</v>
       </c>
       <c r="B116" t="n">
         <v>1.054</v>
@@ -16037,7 +15950,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>1634</v>
+        <v>1613</v>
       </c>
       <c r="B117" t="n">
         <v>1.051</v>
@@ -16065,7 +15978,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>1635</v>
+        <v>1614</v>
       </c>
       <c r="B119" t="n">
         <v>1.051</v>
@@ -16079,7 +15992,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>1636</v>
+        <v>1615</v>
       </c>
       <c r="B120" t="n">
         <v>1.05</v>
@@ -16107,7 +16020,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>1637</v>
+        <v>1616</v>
       </c>
       <c r="B122" t="n">
         <v>1.035</v>
@@ -16135,7 +16048,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>1294</v>
+        <v>1270</v>
       </c>
       <c r="B124" t="n">
         <v>1.028</v>
@@ -16163,7 +16076,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>1386</v>
+        <v>1362</v>
       </c>
       <c r="B126" t="n">
         <v>1.02</v>
@@ -16205,7 +16118,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>1638</v>
+        <v>1617</v>
       </c>
       <c r="B129" t="n">
         <v>1.015</v>
@@ -16219,7 +16132,7 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>1639</v>
+        <v>1618</v>
       </c>
       <c r="B130" t="n">
         <v>1.014</v>
@@ -16247,7 +16160,7 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>1640</v>
+        <v>1619</v>
       </c>
       <c r="B132" t="n">
         <v>1</v>
@@ -16261,7 +16174,7 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>1641</v>
+        <v>1620</v>
       </c>
       <c r="B133" t="n">
         <v>1</v>
@@ -16289,7 +16202,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>1642</v>
+        <v>1621</v>
       </c>
       <c r="B135" t="n">
         <v>0.998</v>
@@ -16303,7 +16216,7 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>1643</v>
+        <v>1622</v>
       </c>
       <c r="B136" t="n">
         <v>0.993</v>
@@ -16317,7 +16230,7 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>1644</v>
+        <v>1623</v>
       </c>
       <c r="B137" t="n">
         <v>0.988</v>
@@ -16331,7 +16244,7 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>1645</v>
+        <v>1624</v>
       </c>
       <c r="B138" t="n">
         <v>0.982</v>
@@ -16345,7 +16258,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>1646</v>
+        <v>1625</v>
       </c>
       <c r="B139" t="n">
         <v>0.982</v>
@@ -16359,7 +16272,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>1647</v>
+        <v>1626</v>
       </c>
       <c r="B140" t="n">
         <v>0.98</v>
@@ -16415,7 +16328,7 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>1648</v>
+        <v>1627</v>
       </c>
       <c r="B144" t="n">
         <v>0.971</v>
@@ -16443,7 +16356,7 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>1649</v>
+        <v>1628</v>
       </c>
       <c r="B146" t="n">
         <v>0.963</v>
@@ -16457,7 +16370,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>1650</v>
+        <v>1629</v>
       </c>
       <c r="B147" t="n">
         <v>0.96</v>
@@ -16485,7 +16398,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>1651</v>
+        <v>1630</v>
       </c>
       <c r="B149" t="n">
         <v>0.959</v>
@@ -16555,7 +16468,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>1652</v>
+        <v>1631</v>
       </c>
       <c r="B154" t="n">
         <v>0.951</v>
@@ -16569,7 +16482,7 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>1653</v>
+        <v>1632</v>
       </c>
       <c r="B155" t="n">
         <v>0.95</v>
@@ -16597,7 +16510,7 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>1654</v>
+        <v>1633</v>
       </c>
       <c r="B157" t="n">
         <v>0.939</v>
@@ -16611,7 +16524,7 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>1655</v>
+        <v>1634</v>
       </c>
       <c r="B158" t="n">
         <v>0.924</v>
@@ -16625,7 +16538,7 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>1656</v>
+        <v>1635</v>
       </c>
       <c r="B159" t="n">
         <v>0.923</v>
@@ -16639,7 +16552,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>1657</v>
+        <v>1636</v>
       </c>
       <c r="B160" t="n">
         <v>0.922</v>
@@ -16667,7 +16580,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>1658</v>
+        <v>1637</v>
       </c>
       <c r="B162" t="n">
         <v>0.914</v>
@@ -16681,7 +16594,7 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>1659</v>
+        <v>1638</v>
       </c>
       <c r="B163" t="n">
         <v>0.913</v>
@@ -16737,7 +16650,7 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>1660</v>
+        <v>1639</v>
       </c>
       <c r="B167" t="n">
         <v>0.898</v>
@@ -16751,7 +16664,7 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>1661</v>
+        <v>1640</v>
       </c>
       <c r="B168" t="n">
         <v>0.896</v>
@@ -16765,7 +16678,7 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>1662</v>
+        <v>1641</v>
       </c>
       <c r="B169" t="n">
         <v>0.891</v>
@@ -16779,7 +16692,7 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>1663</v>
+        <v>1642</v>
       </c>
       <c r="B170" t="n">
         <v>0.888</v>
@@ -16793,7 +16706,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>1437</v>
+        <v>1413</v>
       </c>
       <c r="B171" t="n">
         <v>0.886</v>
@@ -16807,7 +16720,7 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>1373</v>
+        <v>1349</v>
       </c>
       <c r="B172" t="n">
         <v>0.882</v>
@@ -16835,7 +16748,7 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>1380</v>
+        <v>1356</v>
       </c>
       <c r="B174" t="n">
         <v>0.881</v>
@@ -16849,7 +16762,7 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>1664</v>
+        <v>1643</v>
       </c>
       <c r="B175" t="n">
         <v>0.879</v>
@@ -16877,7 +16790,7 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>1665</v>
+        <v>1644</v>
       </c>
       <c r="B177" t="n">
         <v>0.877</v>
@@ -16891,7 +16804,7 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>1666</v>
+        <v>1645</v>
       </c>
       <c r="B178" t="n">
         <v>0.868</v>
@@ -16905,7 +16818,7 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>1334</v>
+        <v>1310</v>
       </c>
       <c r="B179" t="n">
         <v>0.866</v>
@@ -16919,7 +16832,7 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>1667</v>
+        <v>1646</v>
       </c>
       <c r="B180" t="n">
         <v>0.862</v>
@@ -16933,7 +16846,7 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>1668</v>
+        <v>1647</v>
       </c>
       <c r="B181" t="n">
         <v>0.861</v>
@@ -16961,7 +16874,7 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>1669</v>
+        <v>1648</v>
       </c>
       <c r="B183" t="n">
         <v>0.853</v>
@@ -16975,7 +16888,7 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>1670</v>
+        <v>1649</v>
       </c>
       <c r="B184" t="n">
         <v>0.853</v>
@@ -17003,7 +16916,7 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>1671</v>
+        <v>1650</v>
       </c>
       <c r="B186" t="n">
         <v>0.847</v>
@@ -17031,7 +16944,7 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>1672</v>
+        <v>1651</v>
       </c>
       <c r="B188" t="n">
         <v>0.841</v>
@@ -17045,7 +16958,7 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>1673</v>
+        <v>1652</v>
       </c>
       <c r="B189" t="n">
         <v>0.839</v>
@@ -17073,7 +16986,7 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>1674</v>
+        <v>1653</v>
       </c>
       <c r="B191" t="n">
         <v>0.837</v>
@@ -17087,7 +17000,7 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>1675</v>
+        <v>1654</v>
       </c>
       <c r="B192" t="n">
         <v>0.836</v>
@@ -17115,7 +17028,7 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>1676</v>
+        <v>1655</v>
       </c>
       <c r="B194" t="n">
         <v>0.834</v>
@@ -17129,7 +17042,7 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>1677</v>
+        <v>1656</v>
       </c>
       <c r="B195" t="n">
         <v>0.833</v>
@@ -17171,7 +17084,7 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>1678</v>
+        <v>1657</v>
       </c>
       <c r="B198" t="n">
         <v>0.83</v>
@@ -17213,7 +17126,7 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>1679</v>
+        <v>1658</v>
       </c>
       <c r="B201" t="n">
         <v>0.821</v>
@@ -17283,7 +17196,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1680</v>
+        <v>1659</v>
       </c>
       <c r="B4" t="n">
         <v>1.508</v>
@@ -17297,7 +17210,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1681</v>
+        <v>1660</v>
       </c>
       <c r="B5" t="n">
         <v>1.48</v>
@@ -17311,7 +17224,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>1682</v>
+        <v>1661</v>
       </c>
       <c r="B6" t="n">
         <v>1.479</v>
@@ -17325,7 +17238,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>1599</v>
+        <v>1578</v>
       </c>
       <c r="B7" t="n">
         <v>1.443</v>
@@ -17367,7 +17280,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>1646</v>
+        <v>1625</v>
       </c>
       <c r="B10" t="n">
         <v>1.374</v>
@@ -17409,7 +17322,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>1587</v>
+        <v>1566</v>
       </c>
       <c r="B13" t="n">
         <v>1.325</v>
@@ -17465,7 +17378,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>1639</v>
+        <v>1618</v>
       </c>
       <c r="B17" t="n">
         <v>1.262</v>
@@ -17507,7 +17420,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>1592</v>
+        <v>1571</v>
       </c>
       <c r="B20" t="n">
         <v>1.208</v>
@@ -17521,7 +17434,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>1598</v>
+        <v>1577</v>
       </c>
       <c r="B21" t="n">
         <v>1.206</v>
@@ -17563,7 +17476,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>1683</v>
+        <v>1662</v>
       </c>
       <c r="B24" t="n">
         <v>1.17</v>
@@ -17591,7 +17504,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>1684</v>
+        <v>1663</v>
       </c>
       <c r="B26" t="n">
         <v>1.159</v>
@@ -17647,7 +17560,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>1619</v>
+        <v>1598</v>
       </c>
       <c r="B30" t="n">
         <v>1.133</v>
@@ -17731,7 +17644,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>1596</v>
+        <v>1575</v>
       </c>
       <c r="B36" t="n">
         <v>1.094</v>
@@ -17745,7 +17658,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>1685</v>
+        <v>1664</v>
       </c>
       <c r="B37" t="n">
         <v>1.091</v>
@@ -17759,7 +17672,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>1686</v>
+        <v>1665</v>
       </c>
       <c r="B38" t="n">
         <v>1.078</v>
@@ -17787,7 +17700,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>1687</v>
+        <v>1666</v>
       </c>
       <c r="B40" t="n">
         <v>1.07</v>
@@ -17843,7 +17756,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>1688</v>
+        <v>1667</v>
       </c>
       <c r="B44" t="n">
         <v>1.033</v>
@@ -17857,7 +17770,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>1689</v>
+        <v>1668</v>
       </c>
       <c r="B45" t="n">
         <v>1.026</v>
@@ -17871,7 +17784,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>1591</v>
+        <v>1570</v>
       </c>
       <c r="B46" t="n">
         <v>1.021</v>
@@ -17885,7 +17798,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>1690</v>
+        <v>1669</v>
       </c>
       <c r="B47" t="n">
         <v>1.017</v>
@@ -17927,7 +17840,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>1636</v>
+        <v>1615</v>
       </c>
       <c r="B50" t="n">
         <v>0.986</v>
@@ -17969,7 +17882,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>1691</v>
+        <v>1670</v>
       </c>
       <c r="B53" t="n">
         <v>0.965</v>
@@ -17997,7 +17910,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>1692</v>
+        <v>1671</v>
       </c>
       <c r="B55" t="n">
         <v>0.96</v>
@@ -18025,7 +17938,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>1693</v>
+        <v>1672</v>
       </c>
       <c r="B57" t="n">
         <v>0.959</v>
@@ -18053,7 +17966,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>1694</v>
+        <v>1673</v>
       </c>
       <c r="B59" t="n">
         <v>0.953</v>
@@ -18095,7 +18008,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>1373</v>
+        <v>1349</v>
       </c>
       <c r="B62" t="n">
         <v>0.948</v>
@@ -18109,7 +18022,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>1609</v>
+        <v>1588</v>
       </c>
       <c r="B63" t="n">
         <v>0.945</v>
@@ -18123,7 +18036,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>1695</v>
+        <v>1674</v>
       </c>
       <c r="B64" t="n">
         <v>0.944</v>
@@ -18137,7 +18050,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>1696</v>
+        <v>1675</v>
       </c>
       <c r="B65" t="n">
         <v>0.935</v>
@@ -18165,7 +18078,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>1607</v>
+        <v>1586</v>
       </c>
       <c r="B67" t="n">
         <v>0.914</v>
@@ -18179,7 +18092,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>1697</v>
+        <v>1676</v>
       </c>
       <c r="B68" t="n">
         <v>0.912</v>
@@ -18193,7 +18106,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>1452</v>
+        <v>1428</v>
       </c>
       <c r="B69" t="n">
         <v>0.902</v>
@@ -18235,7 +18148,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>1698</v>
+        <v>1677</v>
       </c>
       <c r="B72" t="n">
         <v>0.873</v>
@@ -18263,7 +18176,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>1699</v>
+        <v>1678</v>
       </c>
       <c r="B74" t="n">
         <v>0.865</v>
@@ -18305,7 +18218,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>1700</v>
+        <v>1679</v>
       </c>
       <c r="B77" t="n">
         <v>0.858</v>
@@ -18375,7 +18288,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>1701</v>
+        <v>1680</v>
       </c>
       <c r="B82" t="n">
         <v>0.834</v>
@@ -18389,7 +18302,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>1322</v>
+        <v>1298</v>
       </c>
       <c r="B83" t="n">
         <v>0.832</v>
@@ -18417,7 +18330,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>1638</v>
+        <v>1617</v>
       </c>
       <c r="B85" t="n">
         <v>0.811</v>
@@ -18487,7 +18400,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>1702</v>
+        <v>1681</v>
       </c>
       <c r="B90" t="n">
         <v>0.798</v>
@@ -18529,7 +18442,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>1703</v>
+        <v>1682</v>
       </c>
       <c r="B93" t="n">
         <v>0.79</v>
@@ -18571,7 +18484,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>1704</v>
+        <v>1683</v>
       </c>
       <c r="B96" t="n">
         <v>0.773</v>
@@ -18585,7 +18498,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>1705</v>
+        <v>1684</v>
       </c>
       <c r="B97" t="n">
         <v>0.77</v>
@@ -18613,7 +18526,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>1616</v>
+        <v>1595</v>
       </c>
       <c r="B99" t="n">
         <v>0.764</v>
@@ -18627,7 +18540,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>1617</v>
+        <v>1596</v>
       </c>
       <c r="B100" t="n">
         <v>0.761</v>
@@ -18641,7 +18554,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>1706</v>
+        <v>1685</v>
       </c>
       <c r="B101" t="n">
         <v>0.758</v>
@@ -18655,7 +18568,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>1707</v>
+        <v>1686</v>
       </c>
       <c r="B102" t="n">
         <v>0.753</v>
@@ -18697,7 +18610,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>1708</v>
+        <v>1687</v>
       </c>
       <c r="B105" t="n">
         <v>0.749</v>
@@ -18725,7 +18638,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>1709</v>
+        <v>1688</v>
       </c>
       <c r="B107" t="n">
         <v>0.742</v>
@@ -18739,7 +18652,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>1610</v>
+        <v>1589</v>
       </c>
       <c r="B108" t="n">
         <v>0.74</v>
@@ -18767,7 +18680,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>1710</v>
+        <v>1689</v>
       </c>
       <c r="B110" t="n">
         <v>0.732</v>
@@ -18795,7 +18708,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>1711</v>
+        <v>1690</v>
       </c>
       <c r="B112" t="n">
         <v>0.728</v>
@@ -18837,7 +18750,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>1712</v>
+        <v>1691</v>
       </c>
       <c r="B115" t="n">
         <v>0.721</v>
@@ -18865,7 +18778,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>1713</v>
+        <v>1692</v>
       </c>
       <c r="B117" t="n">
         <v>0.717</v>
@@ -18879,7 +18792,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>1714</v>
+        <v>1693</v>
       </c>
       <c r="B118" t="n">
         <v>0.713</v>
@@ -18907,7 +18820,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>1715</v>
+        <v>1694</v>
       </c>
       <c r="B120" t="n">
         <v>0.706</v>
@@ -18935,7 +18848,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>1716</v>
+        <v>1695</v>
       </c>
       <c r="B122" t="n">
         <v>0.701</v>
@@ -18949,7 +18862,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>1717</v>
+        <v>1696</v>
       </c>
       <c r="B123" t="n">
         <v>0.694</v>
@@ -18963,7 +18876,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>1718</v>
+        <v>1697</v>
       </c>
       <c r="B124" t="n">
         <v>0.694</v>
@@ -18977,7 +18890,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>1719</v>
+        <v>1698</v>
       </c>
       <c r="B125" t="n">
         <v>0.693</v>
@@ -18991,7 +18904,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>1720</v>
+        <v>1699</v>
       </c>
       <c r="B126" t="n">
         <v>0.692</v>
@@ -19005,7 +18918,7 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>1721</v>
+        <v>1700</v>
       </c>
       <c r="B127" t="n">
         <v>0.687</v>
@@ -19019,7 +18932,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>1722</v>
+        <v>1701</v>
       </c>
       <c r="B128" t="n">
         <v>0.681</v>
@@ -19061,7 +18974,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>1723</v>
+        <v>1702</v>
       </c>
       <c r="B131" t="n">
         <v>0.673</v>
@@ -19075,7 +18988,7 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>1625</v>
+        <v>1604</v>
       </c>
       <c r="B132" t="n">
         <v>0.665</v>
@@ -19089,7 +19002,7 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>1724</v>
+        <v>1703</v>
       </c>
       <c r="B133" t="n">
         <v>0.658</v>
@@ -19117,7 +19030,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>1725</v>
+        <v>1704</v>
       </c>
       <c r="B135" t="n">
         <v>0.655</v>
@@ -19131,7 +19044,7 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>1726</v>
+        <v>1705</v>
       </c>
       <c r="B136" t="n">
         <v>0.651</v>
@@ -19145,7 +19058,7 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>1727</v>
+        <v>1706</v>
       </c>
       <c r="B137" t="n">
         <v>0.647</v>
@@ -19159,7 +19072,7 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>1272</v>
+        <v>1707</v>
       </c>
       <c r="B138" t="n">
         <v>0.644</v>
@@ -19187,7 +19100,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>1728</v>
+        <v>1708</v>
       </c>
       <c r="B140" t="n">
         <v>0.635</v>
@@ -19201,7 +19114,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>1633</v>
+        <v>1612</v>
       </c>
       <c r="B141" t="n">
         <v>0.633</v>
@@ -19243,7 +19156,7 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>1729</v>
+        <v>1709</v>
       </c>
       <c r="B144" t="n">
         <v>0.627</v>
@@ -19271,7 +19184,7 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>1730</v>
+        <v>1710</v>
       </c>
       <c r="B146" t="n">
         <v>0.62</v>
@@ -19285,7 +19198,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>1731</v>
+        <v>1711</v>
       </c>
       <c r="B147" t="n">
         <v>0.618</v>
@@ -19299,7 +19212,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>1594</v>
+        <v>1573</v>
       </c>
       <c r="B148" t="n">
         <v>0.615</v>
@@ -19327,7 +19240,7 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>1732</v>
+        <v>1712</v>
       </c>
       <c r="B150" t="n">
         <v>0.614</v>
@@ -19341,7 +19254,7 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>1603</v>
+        <v>1582</v>
       </c>
       <c r="B151" t="n">
         <v>0.614</v>
@@ -19355,7 +19268,7 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>1733</v>
+        <v>1713</v>
       </c>
       <c r="B152" t="n">
         <v>0.612</v>
@@ -19383,7 +19296,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>1734</v>
+        <v>1714</v>
       </c>
       <c r="B154" t="n">
         <v>0.608</v>
@@ -19439,7 +19352,7 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>1589</v>
+        <v>1568</v>
       </c>
       <c r="B158" t="n">
         <v>0.602</v>
@@ -19467,7 +19380,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>1735</v>
+        <v>1715</v>
       </c>
       <c r="B160" t="n">
         <v>0.602</v>
@@ -19481,7 +19394,7 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>1637</v>
+        <v>1616</v>
       </c>
       <c r="B161" t="n">
         <v>0.601</v>
@@ -19495,7 +19408,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>1736</v>
+        <v>1716</v>
       </c>
       <c r="B162" t="n">
         <v>0.6</v>
@@ -19537,7 +19450,7 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>1737</v>
+        <v>1717</v>
       </c>
       <c r="B165" t="n">
         <v>0.598</v>
@@ -19551,7 +19464,7 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>1738</v>
+        <v>1718</v>
       </c>
       <c r="B166" t="n">
         <v>0.597</v>
@@ -19565,7 +19478,7 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>1608</v>
+        <v>1587</v>
       </c>
       <c r="B167" t="n">
         <v>0.597</v>
@@ -19593,7 +19506,7 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>1739</v>
+        <v>1719</v>
       </c>
       <c r="B169" t="n">
         <v>0.595</v>
@@ -19621,7 +19534,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>1740</v>
+        <v>1720</v>
       </c>
       <c r="B171" t="n">
         <v>0.593</v>
@@ -19663,7 +19576,7 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>1741</v>
+        <v>1721</v>
       </c>
       <c r="B174" t="n">
         <v>0.59</v>
@@ -19677,7 +19590,7 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>1742</v>
+        <v>1722</v>
       </c>
       <c r="B175" t="n">
         <v>0.588</v>
@@ -19687,370 +19600,6 @@
       </c>
       <c r="D175" t="n">
         <v>9.975</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="s">
-        <v>1743</v>
-      </c>
-      <c r="B176" t="n">
-        <v>0.585</v>
-      </c>
-      <c r="C176" t="n">
-        <v>0.00000000000000000635866127254551</v>
-      </c>
-      <c r="D176" t="n">
-        <v>8.744</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="s">
-        <v>939</v>
-      </c>
-      <c r="B177" t="n">
-        <v>0.585</v>
-      </c>
-      <c r="C177" t="n">
-        <v>0.00000000000000000000000839552349306654</v>
-      </c>
-      <c r="D177" t="n">
-        <v>10.202</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="s">
-        <v>701</v>
-      </c>
-      <c r="B178" t="n">
-        <v>0.584</v>
-      </c>
-      <c r="C178" t="n">
-        <v>0.000000000000000000012167003961532</v>
-      </c>
-      <c r="D178" t="n">
-        <v>9.447</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="s">
-        <v>846</v>
-      </c>
-      <c r="B179" t="n">
-        <v>0.583</v>
-      </c>
-      <c r="C179" t="n">
-        <v>0.0000000000000000000000105021138668756</v>
-      </c>
-      <c r="D179" t="n">
-        <v>10.192</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="s">
-        <v>159</v>
-      </c>
-      <c r="B180" t="n">
-        <v>0.579</v>
-      </c>
-      <c r="C180" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000045485956802112</v>
-      </c>
-      <c r="D180" t="n">
-        <v>16.185</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="s">
-        <v>1744</v>
-      </c>
-      <c r="B181" t="n">
-        <v>0.578</v>
-      </c>
-      <c r="C181" t="n">
-        <v>0.00000000000000000000000000910750358524723</v>
-      </c>
-      <c r="D181" t="n">
-        <v>10.85</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="s">
-        <v>1745</v>
-      </c>
-      <c r="B182" t="n">
-        <v>0.575</v>
-      </c>
-      <c r="C182" t="n">
-        <v>0.00000000000000000000748537907406794</v>
-      </c>
-      <c r="D182" t="n">
-        <v>9.503</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="s">
-        <v>1655</v>
-      </c>
-      <c r="B183" t="n">
-        <v>0.573</v>
-      </c>
-      <c r="C183" t="n">
-        <v>0.000000000000000000000000000000000000000000000787754659473477</v>
-      </c>
-      <c r="D183" t="n">
-        <v>14.338</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="s">
-        <v>590</v>
-      </c>
-      <c r="B184" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="C184" t="n">
-        <v>0.0000000000000000000000000385979235837524</v>
-      </c>
-      <c r="D184" t="n">
-        <v>10.717</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="s">
-        <v>1746</v>
-      </c>
-      <c r="B185" t="n">
-        <v>0.568</v>
-      </c>
-      <c r="C185" t="n">
-        <v>0.0000000000000000000373683685129917</v>
-      </c>
-      <c r="D185" t="n">
-        <v>9.325</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="s">
-        <v>1747</v>
-      </c>
-      <c r="B186" t="n">
-        <v>0.565</v>
-      </c>
-      <c r="C186" t="n">
-        <v>0.000000000000000000000007612280067253</v>
-      </c>
-      <c r="D186" t="n">
-        <v>10.207</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="s">
-        <v>730</v>
-      </c>
-      <c r="B187" t="n">
-        <v>0.559</v>
-      </c>
-      <c r="C187" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000331650432499917</v>
-      </c>
-      <c r="D187" t="n">
-        <v>17.951</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="s">
-        <v>43</v>
-      </c>
-      <c r="B188" t="n">
-        <v>0.557</v>
-      </c>
-      <c r="C188" t="n">
-        <v>0.0000000000000000000000000555002416370275</v>
-      </c>
-      <c r="D188" t="n">
-        <v>10.676</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="s">
-        <v>1748</v>
-      </c>
-      <c r="B189" t="n">
-        <v>0.557</v>
-      </c>
-      <c r="C189" t="n">
-        <v>0.000000000000000000837294430203967</v>
-      </c>
-      <c r="D189" t="n">
-        <v>8.978</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="s">
-        <v>977</v>
-      </c>
-      <c r="B190" t="n">
-        <v>0.557</v>
-      </c>
-      <c r="C190" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000106805731747865</v>
-      </c>
-      <c r="D190" t="n">
-        <v>17.629</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="s">
-        <v>1749</v>
-      </c>
-      <c r="B191" t="n">
-        <v>0.555</v>
-      </c>
-      <c r="C191" t="n">
-        <v>0.00000000000000000000000128118477951638</v>
-      </c>
-      <c r="D191" t="n">
-        <v>10.393</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="s">
-        <v>1750</v>
-      </c>
-      <c r="B192" t="n">
-        <v>0.555</v>
-      </c>
-      <c r="C192" t="n">
-        <v>0.0000000000000000000086865700563477</v>
-      </c>
-      <c r="D192" t="n">
-        <v>9.481</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="s">
-        <v>204</v>
-      </c>
-      <c r="B193" t="n">
-        <v>0.555</v>
-      </c>
-      <c r="C193" t="n">
-        <v>0.00000000000000157309899329308</v>
-      </c>
-      <c r="D193" t="n">
-        <v>8.089</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="s">
-        <v>1751</v>
-      </c>
-      <c r="B194" t="n">
-        <v>0.549</v>
-      </c>
-      <c r="C194" t="n">
-        <v>0.0000000000000000000046082352507101</v>
-      </c>
-      <c r="D194" t="n">
-        <v>9.546</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="s">
-        <v>1752</v>
-      </c>
-      <c r="B195" t="n">
-        <v>0.546</v>
-      </c>
-      <c r="C195" t="n">
-        <v>0.00000000000000000000000297397273966894</v>
-      </c>
-      <c r="D195" t="n">
-        <v>10.296</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="s">
-        <v>339</v>
-      </c>
-      <c r="B196" t="n">
-        <v>0.546</v>
-      </c>
-      <c r="C196" t="n">
-        <v>0.0000000000000000000347002500438837</v>
-      </c>
-      <c r="D196" t="n">
-        <v>9.312</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="s">
-        <v>1673</v>
-      </c>
-      <c r="B197" t="n">
-        <v>0.541</v>
-      </c>
-      <c r="C197" t="n">
-        <v>0.00000000000000000000056671068298396</v>
-      </c>
-      <c r="D197" t="n">
-        <v>9.75</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="s">
-        <v>1753</v>
-      </c>
-      <c r="B198" t="n">
-        <v>0.539</v>
-      </c>
-      <c r="C198" t="n">
-        <v>0.00000000000000000204364180085165</v>
-      </c>
-      <c r="D198" t="n">
-        <v>8.872</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="s">
-        <v>1051</v>
-      </c>
-      <c r="B199" t="n">
-        <v>0.538</v>
-      </c>
-      <c r="C199" t="n">
-        <v>0.0000000000000000387318910875728</v>
-      </c>
-      <c r="D199" t="n">
-        <v>8.533</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="s">
-        <v>1754</v>
-      </c>
-      <c r="B200" t="n">
-        <v>0.535</v>
-      </c>
-      <c r="C200" t="n">
-        <v>0.0000000000000000000000000230763183015218</v>
-      </c>
-      <c r="D200" t="n">
-        <v>10.762</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="s">
-        <v>1755</v>
-      </c>
-      <c r="B201" t="n">
-        <v>0.535</v>
-      </c>
-      <c r="C201" t="n">
-        <v>0.00000000000000000000901184172227675</v>
-      </c>
-      <c r="D201" t="n">
-        <v>9.473</v>
       </c>
     </row>
   </sheetData>
@@ -20111,7 +19660,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1514</v>
+        <v>1493</v>
       </c>
       <c r="B4" t="n">
         <v>2.289</v>
@@ -20125,7 +19674,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1756</v>
+        <v>1723</v>
       </c>
       <c r="B5" t="n">
         <v>2.25</v>
@@ -20167,7 +19716,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>1671</v>
+        <v>1650</v>
       </c>
       <c r="B8" t="n">
         <v>1.983</v>
@@ -20181,7 +19730,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1505</v>
+        <v>1484</v>
       </c>
       <c r="B9" t="n">
         <v>1.972</v>
@@ -20195,7 +19744,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>1476</v>
+        <v>1452</v>
       </c>
       <c r="B10" t="n">
         <v>1.946</v>
@@ -20251,7 +19800,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>1757</v>
+        <v>1724</v>
       </c>
       <c r="B14" t="n">
         <v>1.768</v>
@@ -20265,7 +19814,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>1758</v>
+        <v>1725</v>
       </c>
       <c r="B15" t="n">
         <v>1.683</v>
@@ -20279,7 +19828,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>1759</v>
+        <v>1726</v>
       </c>
       <c r="B16" t="n">
         <v>1.659</v>
@@ -20293,7 +19842,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>1760</v>
+        <v>1727</v>
       </c>
       <c r="B17" t="n">
         <v>1.658</v>
@@ -20335,7 +19884,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>1546</v>
+        <v>1525</v>
       </c>
       <c r="B20" t="n">
         <v>1.543</v>
@@ -20349,7 +19898,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>1761</v>
+        <v>1728</v>
       </c>
       <c r="B21" t="n">
         <v>1.511</v>
@@ -20363,7 +19912,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>1762</v>
+        <v>1729</v>
       </c>
       <c r="B22" t="n">
         <v>1.459</v>
@@ -20391,7 +19940,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>1520</v>
+        <v>1499</v>
       </c>
       <c r="B24" t="n">
         <v>1.419</v>
@@ -20405,7 +19954,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>1763</v>
+        <v>1730</v>
       </c>
       <c r="B25" t="n">
         <v>1.397</v>
@@ -20419,7 +19968,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>1764</v>
+        <v>1731</v>
       </c>
       <c r="B26" t="n">
         <v>1.394</v>
@@ -20433,7 +19982,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>1765</v>
+        <v>1732</v>
       </c>
       <c r="B27" t="n">
         <v>1.382</v>
@@ -20447,7 +19996,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>1706</v>
+        <v>1685</v>
       </c>
       <c r="B28" t="n">
         <v>1.371</v>
@@ -20461,7 +20010,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>1766</v>
+        <v>1733</v>
       </c>
       <c r="B29" t="n">
         <v>1.35</v>
@@ -20489,7 +20038,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>1533</v>
+        <v>1512</v>
       </c>
       <c r="B31" t="n">
         <v>1.323</v>
@@ -20517,7 +20066,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>1767</v>
+        <v>1734</v>
       </c>
       <c r="B33" t="n">
         <v>1.318</v>
@@ -20559,7 +20108,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>1768</v>
+        <v>1735</v>
       </c>
       <c r="B36" t="n">
         <v>1.279</v>
@@ -20587,7 +20136,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>1696</v>
+        <v>1675</v>
       </c>
       <c r="B38" t="n">
         <v>1.273</v>
@@ -20615,7 +20164,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>1491</v>
+        <v>1469</v>
       </c>
       <c r="B40" t="n">
         <v>1.249</v>
@@ -20629,7 +20178,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>1769</v>
+        <v>1736</v>
       </c>
       <c r="B41" t="n">
         <v>1.243</v>
@@ -20643,7 +20192,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>1770</v>
+        <v>1737</v>
       </c>
       <c r="B42" t="n">
         <v>1.231</v>
@@ -20657,7 +20206,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>1559</v>
+        <v>1538</v>
       </c>
       <c r="B43" t="n">
         <v>1.223</v>
@@ -20671,7 +20220,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>1771</v>
+        <v>1738</v>
       </c>
       <c r="B44" t="n">
         <v>1.214</v>
@@ -20685,7 +20234,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>1772</v>
+        <v>1739</v>
       </c>
       <c r="B45" t="n">
         <v>1.184</v>
@@ -20699,7 +20248,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>1773</v>
+        <v>1740</v>
       </c>
       <c r="B46" t="n">
         <v>1.18</v>
@@ -20713,7 +20262,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>1501</v>
+        <v>1480</v>
       </c>
       <c r="B47" t="n">
         <v>1.166</v>
@@ -20741,7 +20290,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>1774</v>
+        <v>1741</v>
       </c>
       <c r="B49" t="n">
         <v>1.158</v>
@@ -20755,7 +20304,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>1527</v>
+        <v>1506</v>
       </c>
       <c r="B50" t="n">
         <v>1.152</v>
@@ -20783,7 +20332,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>1775</v>
+        <v>1742</v>
       </c>
       <c r="B52" t="n">
         <v>1.141</v>
@@ -20797,7 +20346,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>1776</v>
+        <v>1743</v>
       </c>
       <c r="B53" t="n">
         <v>1.139</v>
@@ -20811,7 +20360,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>1777</v>
+        <v>1744</v>
       </c>
       <c r="B54" t="n">
         <v>1.133</v>
@@ -20825,7 +20374,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>1778</v>
+        <v>1745</v>
       </c>
       <c r="B55" t="n">
         <v>1.131</v>
@@ -20839,7 +20388,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>1779</v>
+        <v>1746</v>
       </c>
       <c r="B56" t="n">
         <v>1.13</v>
@@ -20867,7 +20416,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>1695</v>
+        <v>1674</v>
       </c>
       <c r="B58" t="n">
         <v>1.121</v>
@@ -20881,7 +20430,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>1780</v>
+        <v>1747</v>
       </c>
       <c r="B59" t="n">
         <v>1.109</v>
@@ -20895,7 +20444,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>1566</v>
+        <v>1545</v>
       </c>
       <c r="B60" t="n">
         <v>1.108</v>
@@ -20923,7 +20472,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>1781</v>
+        <v>1748</v>
       </c>
       <c r="B62" t="n">
         <v>1.092</v>
@@ -20979,7 +20528,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>1782</v>
+        <v>1749</v>
       </c>
       <c r="B66" t="n">
         <v>1.073</v>
@@ -20993,7 +20542,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>1783</v>
+        <v>1750</v>
       </c>
       <c r="B67" t="n">
         <v>1.058</v>
@@ -21021,7 +20570,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>1784</v>
+        <v>1751</v>
       </c>
       <c r="B69" t="n">
         <v>1.05</v>
@@ -21035,7 +20584,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>1785</v>
+        <v>1752</v>
       </c>
       <c r="B70" t="n">
         <v>1.04</v>
@@ -21063,7 +20612,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>1786</v>
+        <v>1753</v>
       </c>
       <c r="B72" t="n">
         <v>1.027</v>
@@ -21105,7 +20654,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>1787</v>
+        <v>1754</v>
       </c>
       <c r="B75" t="n">
         <v>1.016</v>
@@ -21119,7 +20668,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>1788</v>
+        <v>1755</v>
       </c>
       <c r="B76" t="n">
         <v>1.015</v>
@@ -21133,7 +20682,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>1271</v>
+        <v>1756</v>
       </c>
       <c r="B77" t="n">
         <v>1.009</v>
@@ -21175,7 +20724,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>1789</v>
+        <v>1757</v>
       </c>
       <c r="B80" t="n">
         <v>0.991</v>
@@ -21189,7 +20738,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>1790</v>
+        <v>1758</v>
       </c>
       <c r="B81" t="n">
         <v>0.987</v>
@@ -21231,7 +20780,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>1791</v>
+        <v>1759</v>
       </c>
       <c r="B84" t="n">
         <v>0.98</v>
@@ -21245,7 +20794,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>1556</v>
+        <v>1535</v>
       </c>
       <c r="B85" t="n">
         <v>0.979</v>
@@ -21259,7 +20808,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>1792</v>
+        <v>1760</v>
       </c>
       <c r="B86" t="n">
         <v>0.978</v>
@@ -21315,7 +20864,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>1596</v>
+        <v>1575</v>
       </c>
       <c r="B90" t="n">
         <v>0.971</v>
@@ -21329,7 +20878,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>1793</v>
+        <v>1761</v>
       </c>
       <c r="B91" t="n">
         <v>0.961</v>
@@ -21343,7 +20892,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>1794</v>
+        <v>1762</v>
       </c>
       <c r="B92" t="n">
         <v>0.959</v>
@@ -21357,7 +20906,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>1795</v>
+        <v>1763</v>
       </c>
       <c r="B93" t="n">
         <v>0.958</v>
@@ -21371,7 +20920,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>1796</v>
+        <v>1764</v>
       </c>
       <c r="B94" t="n">
         <v>0.958</v>
@@ -21385,7 +20934,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>1797</v>
+        <v>1765</v>
       </c>
       <c r="B95" t="n">
         <v>0.956</v>
@@ -21399,7 +20948,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>1798</v>
+        <v>1766</v>
       </c>
       <c r="B96" t="n">
         <v>0.955</v>
@@ -21413,7 +20962,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>1508</v>
+        <v>1487</v>
       </c>
       <c r="B97" t="n">
         <v>0.951</v>
@@ -21427,7 +20976,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>1799</v>
+        <v>1767</v>
       </c>
       <c r="B98" t="n">
         <v>0.95</v>
@@ -21441,7 +20990,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>1800</v>
+        <v>1768</v>
       </c>
       <c r="B99" t="n">
         <v>0.949</v>
@@ -21469,7 +21018,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>1801</v>
+        <v>1769</v>
       </c>
       <c r="B101" t="n">
         <v>0.946</v>
@@ -21483,7 +21032,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>1802</v>
+        <v>1770</v>
       </c>
       <c r="B102" t="n">
         <v>0.944</v>
@@ -21539,7 +21088,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>1689</v>
+        <v>1668</v>
       </c>
       <c r="B106" t="n">
         <v>0.935</v>
@@ -21595,7 +21144,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>1803</v>
+        <v>1771</v>
       </c>
       <c r="B110" t="n">
         <v>0.931</v>
@@ -21609,7 +21158,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>1804</v>
+        <v>1772</v>
       </c>
       <c r="B111" t="n">
         <v>0.93</v>
@@ -21623,7 +21172,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>1805</v>
+        <v>1773</v>
       </c>
       <c r="B112" t="n">
         <v>0.925</v>
@@ -21637,7 +21186,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>1806</v>
+        <v>1774</v>
       </c>
       <c r="B113" t="n">
         <v>0.924</v>
@@ -21651,7 +21200,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>1807</v>
+        <v>1775</v>
       </c>
       <c r="B114" t="n">
         <v>0.921</v>
@@ -21679,7 +21228,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>1808</v>
+        <v>1776</v>
       </c>
       <c r="B116" t="n">
         <v>0.919</v>
@@ -21693,7 +21242,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>1809</v>
+        <v>1777</v>
       </c>
       <c r="B117" t="n">
         <v>0.914</v>
@@ -21707,7 +21256,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>1810</v>
+        <v>1778</v>
       </c>
       <c r="B118" t="n">
         <v>0.914</v>
@@ -21721,7 +21270,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>1742</v>
+        <v>1722</v>
       </c>
       <c r="B119" t="n">
         <v>0.912</v>
@@ -21735,7 +21284,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>1811</v>
+        <v>1779</v>
       </c>
       <c r="B120" t="n">
         <v>0.903</v>
@@ -21763,7 +21312,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>1812</v>
+        <v>1780</v>
       </c>
       <c r="B122" t="n">
         <v>0.899</v>
@@ -21791,7 +21340,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>1530</v>
+        <v>1509</v>
       </c>
       <c r="B124" t="n">
         <v>0.891</v>
@@ -21805,7 +21354,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>1682</v>
+        <v>1661</v>
       </c>
       <c r="B125" t="n">
         <v>0.889</v>
@@ -21833,7 +21382,7 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>1813</v>
+        <v>1781</v>
       </c>
       <c r="B127" t="n">
         <v>0.878</v>
@@ -21847,7 +21396,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>1601</v>
+        <v>1580</v>
       </c>
       <c r="B128" t="n">
         <v>0.874</v>
@@ -21861,7 +21410,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>1273</v>
+        <v>1782</v>
       </c>
       <c r="B129" t="n">
         <v>0.874</v>
@@ -21875,7 +21424,7 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>1699</v>
+        <v>1678</v>
       </c>
       <c r="B130" t="n">
         <v>0.871</v>
@@ -21889,7 +21438,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>1814</v>
+        <v>1783</v>
       </c>
       <c r="B131" t="n">
         <v>0.87</v>
@@ -21917,7 +21466,7 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>1815</v>
+        <v>1784</v>
       </c>
       <c r="B133" t="n">
         <v>0.867</v>
@@ -21945,7 +21494,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>1816</v>
+        <v>1785</v>
       </c>
       <c r="B135" t="n">
         <v>0.862</v>
@@ -21987,7 +21536,7 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>1817</v>
+        <v>1786</v>
       </c>
       <c r="B138" t="n">
         <v>0.854</v>
@@ -22015,7 +21564,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>1818</v>
+        <v>1787</v>
       </c>
       <c r="B140" t="n">
         <v>0.852</v>
@@ -22029,7 +21578,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>1819</v>
+        <v>1788</v>
       </c>
       <c r="B141" t="n">
         <v>0.852</v>
@@ -22043,7 +21592,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>1628</v>
+        <v>1607</v>
       </c>
       <c r="B142" t="n">
         <v>0.851</v>
@@ -22057,7 +21606,7 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>1820</v>
+        <v>1789</v>
       </c>
       <c r="B143" t="n">
         <v>0.847</v>
@@ -22071,7 +21620,7 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>1270</v>
+        <v>1790</v>
       </c>
       <c r="B144" t="n">
         <v>0.846</v>
@@ -22099,7 +21648,7 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>1821</v>
+        <v>1791</v>
       </c>
       <c r="B146" t="n">
         <v>0.841</v>
@@ -22113,7 +21662,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>1822</v>
+        <v>1792</v>
       </c>
       <c r="B147" t="n">
         <v>0.837</v>
@@ -22141,7 +21690,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>1504</v>
+        <v>1483</v>
       </c>
       <c r="B149" t="n">
         <v>0.831</v>
@@ -22155,7 +21704,7 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>1823</v>
+        <v>1793</v>
       </c>
       <c r="B150" t="n">
         <v>0.829</v>
@@ -22169,7 +21718,7 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>1824</v>
+        <v>1794</v>
       </c>
       <c r="B151" t="n">
         <v>0.822</v>
@@ -22183,7 +21732,7 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>1825</v>
+        <v>1795</v>
       </c>
       <c r="B152" t="n">
         <v>0.821</v>
@@ -22211,7 +21760,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>1266</v>
+        <v>1796</v>
       </c>
       <c r="B154" t="n">
         <v>0.818</v>
@@ -22225,7 +21774,7 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>1826</v>
+        <v>1797</v>
       </c>
       <c r="B155" t="n">
         <v>0.817</v>
@@ -22239,7 +21788,7 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>1827</v>
+        <v>1798</v>
       </c>
       <c r="B156" t="n">
         <v>0.816</v>
@@ -22253,7 +21802,7 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>1828</v>
+        <v>1799</v>
       </c>
       <c r="B157" t="n">
         <v>0.815</v>
@@ -22267,7 +21816,7 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>1829</v>
+        <v>1800</v>
       </c>
       <c r="B158" t="n">
         <v>0.814</v>
@@ -22281,7 +21830,7 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>1830</v>
+        <v>1801</v>
       </c>
       <c r="B159" t="n">
         <v>0.813</v>
@@ -22295,7 +21844,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>1831</v>
+        <v>1802</v>
       </c>
       <c r="B160" t="n">
         <v>0.813</v>
@@ -22323,7 +21872,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>1832</v>
+        <v>1803</v>
       </c>
       <c r="B162" t="n">
         <v>0.81</v>
@@ -22337,7 +21886,7 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>1833</v>
+        <v>1804</v>
       </c>
       <c r="B163" t="n">
         <v>0.807</v>
@@ -22351,7 +21900,7 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>1834</v>
+        <v>1805</v>
       </c>
       <c r="B164" t="n">
         <v>0.807</v>
@@ -22393,7 +21942,7 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>1659</v>
+        <v>1638</v>
       </c>
       <c r="B167" t="n">
         <v>0.796</v>
@@ -22407,7 +21956,7 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>1685</v>
+        <v>1664</v>
       </c>
       <c r="B168" t="n">
         <v>0.796</v>
@@ -22421,7 +21970,7 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>1835</v>
+        <v>1806</v>
       </c>
       <c r="B169" t="n">
         <v>0.794</v>
@@ -22449,7 +21998,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>1836</v>
+        <v>1807</v>
       </c>
       <c r="B171" t="n">
         <v>0.784</v>
@@ -22463,7 +22012,7 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>1496</v>
+        <v>1474</v>
       </c>
       <c r="B172" t="n">
         <v>0.783</v>
@@ -22477,7 +22026,7 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>1837</v>
+        <v>1808</v>
       </c>
       <c r="B173" t="n">
         <v>0.782</v>
@@ -22491,7 +22040,7 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>1838</v>
+        <v>1809</v>
       </c>
       <c r="B174" t="n">
         <v>0.777</v>
@@ -22505,7 +22054,7 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>1839</v>
+        <v>1810</v>
       </c>
       <c r="B175" t="n">
         <v>0.777</v>
@@ -22547,7 +22096,7 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>1840</v>
+        <v>1811</v>
       </c>
       <c r="B178" t="n">
         <v>0.769</v>
@@ -22561,7 +22110,7 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>1341</v>
+        <v>1317</v>
       </c>
       <c r="B179" t="n">
         <v>0.768</v>
@@ -22603,7 +22152,7 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>1841</v>
+        <v>1812</v>
       </c>
       <c r="B182" t="n">
         <v>0.766</v>
@@ -22617,7 +22166,7 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>1842</v>
+        <v>1813</v>
       </c>
       <c r="B183" t="n">
         <v>0.764</v>
@@ -22631,7 +22180,7 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>1843</v>
+        <v>1814</v>
       </c>
       <c r="B184" t="n">
         <v>0.762</v>
@@ -22659,7 +22208,7 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>1844</v>
+        <v>1815</v>
       </c>
       <c r="B186" t="n">
         <v>0.759</v>
@@ -22673,7 +22222,7 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>1845</v>
+        <v>1816</v>
       </c>
       <c r="B187" t="n">
         <v>0.758</v>
@@ -22701,7 +22250,7 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>1846</v>
+        <v>1817</v>
       </c>
       <c r="B189" t="n">
         <v>0.754</v>
@@ -22715,7 +22264,7 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>1847</v>
+        <v>1818</v>
       </c>
       <c r="B190" t="n">
         <v>0.754</v>
@@ -22743,7 +22292,7 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>1848</v>
+        <v>1819</v>
       </c>
       <c r="B192" t="n">
         <v>0.747</v>
@@ -22757,7 +22306,7 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>1849</v>
+        <v>1820</v>
       </c>
       <c r="B193" t="n">
         <v>0.747</v>
@@ -22771,7 +22320,7 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>1850</v>
+        <v>1821</v>
       </c>
       <c r="B194" t="n">
         <v>0.742</v>
@@ -22799,7 +22348,7 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>1851</v>
+        <v>1822</v>
       </c>
       <c r="B196" t="n">
         <v>0.738</v>
@@ -22813,7 +22362,7 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>1852</v>
+        <v>1823</v>
       </c>
       <c r="B197" t="n">
         <v>0.738</v>
@@ -22827,7 +22376,7 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>1853</v>
+        <v>1824</v>
       </c>
       <c r="B198" t="n">
         <v>0.736</v>
@@ -22841,7 +22390,7 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>1854</v>
+        <v>1825</v>
       </c>
       <c r="B199" t="n">
         <v>0.735</v>
@@ -22855,7 +22404,7 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>1855</v>
+        <v>1826</v>
       </c>
       <c r="B200" t="n">
         <v>0.731</v>
@@ -22869,7 +22418,7 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>1856</v>
+        <v>1827</v>
       </c>
       <c r="B201" t="n">
         <v>0.725</v>
@@ -43937,440 +43486,6 @@
         <v>10.905</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" t="s">
-        <v>1261</v>
-      </c>
-      <c r="B90" t="n">
-        <v>0.585</v>
-      </c>
-      <c r="C90" t="n">
-        <v>0.0000000000000000000000000000851604816348641</v>
-      </c>
-      <c r="D90" t="n">
-        <v>11.211</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s">
-        <v>825</v>
-      </c>
-      <c r="B91" t="n">
-        <v>0.583</v>
-      </c>
-      <c r="C91" t="n">
-        <v>0.0000000000000000000000000169779792550167</v>
-      </c>
-      <c r="D91" t="n">
-        <v>10.726</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s">
-        <v>1262</v>
-      </c>
-      <c r="B92" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="C92" t="n">
-        <v>0.0000000000000000000000000000000000201464684726201</v>
-      </c>
-      <c r="D92" t="n">
-        <v>12.497</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="s">
-        <v>1263</v>
-      </c>
-      <c r="B93" t="n">
-        <v>0.577</v>
-      </c>
-      <c r="C93" t="n">
-        <v>0.0000000000000000000000000000772200267454286</v>
-      </c>
-      <c r="D93" t="n">
-        <v>11.219</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="s">
-        <v>1264</v>
-      </c>
-      <c r="B94" t="n">
-        <v>0.577</v>
-      </c>
-      <c r="C94" t="n">
-        <v>0.000000000000000000000000144886817510528</v>
-      </c>
-      <c r="D94" t="n">
-        <v>10.524</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="s">
-        <v>1265</v>
-      </c>
-      <c r="B95" t="n">
-        <v>0.574</v>
-      </c>
-      <c r="C95" t="n">
-        <v>0.00000000000000000000000000000000000000000000000117524470749094</v>
-      </c>
-      <c r="D95" t="n">
-        <v>14.737</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="s">
-        <v>1266</v>
-      </c>
-      <c r="B96" t="n">
-        <v>0.573</v>
-      </c>
-      <c r="C96" t="n">
-        <v>0.00000000000000000000000191715609075267</v>
-      </c>
-      <c r="D96" t="n">
-        <v>10.278</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="s">
-        <v>1267</v>
-      </c>
-      <c r="B97" t="n">
-        <v>0.566</v>
-      </c>
-      <c r="C97" t="n">
-        <v>0.0000000000000000000000000199728366791456</v>
-      </c>
-      <c r="D97" t="n">
-        <v>10.711</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="s">
-        <v>1268</v>
-      </c>
-      <c r="B98" t="n">
-        <v>0.564</v>
-      </c>
-      <c r="C98" t="n">
-        <v>0.000000000000000000000000235329506455889</v>
-      </c>
-      <c r="D98" t="n">
-        <v>10.479</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="s">
-        <v>1269</v>
-      </c>
-      <c r="B99" t="n">
-        <v>0.561</v>
-      </c>
-      <c r="C99" t="n">
-        <v>0.0000000000000000000000000257652326790907</v>
-      </c>
-      <c r="D99" t="n">
-        <v>10.688</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="s">
-        <v>1270</v>
-      </c>
-      <c r="B100" t="n">
-        <v>0.558</v>
-      </c>
-      <c r="C100" t="n">
-        <v>0.00000000000000000000000178048879814513</v>
-      </c>
-      <c r="D100" t="n">
-        <v>10.284</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="s">
-        <v>1271</v>
-      </c>
-      <c r="B101" t="n">
-        <v>0.556</v>
-      </c>
-      <c r="C101" t="n">
-        <v>0.000000000000000000000000105731504052583</v>
-      </c>
-      <c r="D101" t="n">
-        <v>10.554</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="s">
-        <v>75</v>
-      </c>
-      <c r="B102" t="n">
-        <v>0.554</v>
-      </c>
-      <c r="C102" t="n">
-        <v>0.0000000000000000000000000010440752410847</v>
-      </c>
-      <c r="D102" t="n">
-        <v>10.983</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="s">
-        <v>1272</v>
-      </c>
-      <c r="B103" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="C103" t="n">
-        <v>0.000000000000000000000000159120774985453</v>
-      </c>
-      <c r="D103" t="n">
-        <v>10.525</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="s">
-        <v>878</v>
-      </c>
-      <c r="B104" t="n">
-        <v>0.549</v>
-      </c>
-      <c r="C104" t="n">
-        <v>0.0000000000000000000000000000000000173402309964913</v>
-      </c>
-      <c r="D104" t="n">
-        <v>12.512</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="s">
-        <v>1273</v>
-      </c>
-      <c r="B105" t="n">
-        <v>0.547</v>
-      </c>
-      <c r="C105" t="n">
-        <v>0.00000000000000047313577744857</v>
-      </c>
-      <c r="D105" t="n">
-        <v>8.207</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="s">
-        <v>1274</v>
-      </c>
-      <c r="B106" t="n">
-        <v>0.545</v>
-      </c>
-      <c r="C106" t="n">
-        <v>0.000000000000000000000304725245103229</v>
-      </c>
-      <c r="D106" t="n">
-        <v>9.771</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="s">
-        <v>1275</v>
-      </c>
-      <c r="B107" t="n">
-        <v>0.541</v>
-      </c>
-      <c r="C107" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000971742623391907</v>
-      </c>
-      <c r="D107" t="n">
-        <v>16.664</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="s">
-        <v>1276</v>
-      </c>
-      <c r="B108" t="n">
-        <v>0.536</v>
-      </c>
-      <c r="C108" t="n">
-        <v>0.000000000000000000000000340098120520117</v>
-      </c>
-      <c r="D108" t="n">
-        <v>10.454</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="s">
-        <v>1277</v>
-      </c>
-      <c r="B109" t="n">
-        <v>0.535</v>
-      </c>
-      <c r="C109" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000243933109440228</v>
-      </c>
-      <c r="D109" t="n">
-        <v>15.154</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="s">
-        <v>1278</v>
-      </c>
-      <c r="B110" t="n">
-        <v>0.531</v>
-      </c>
-      <c r="C110" t="n">
-        <v>0.00000000000000000000403265648158309</v>
-      </c>
-      <c r="D110" t="n">
-        <v>9.522</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="s">
-        <v>1279</v>
-      </c>
-      <c r="B111" t="n">
-        <v>0.529</v>
-      </c>
-      <c r="C111" t="n">
-        <v>0.0000000000000000000000000000205078910050892</v>
-      </c>
-      <c r="D111" t="n">
-        <v>11.352</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="s">
-        <v>1280</v>
-      </c>
-      <c r="B112" t="n">
-        <v>0.527</v>
-      </c>
-      <c r="C112" t="n">
-        <v>0.000000000000000000015130521163038</v>
-      </c>
-      <c r="D112" t="n">
-        <v>9.375</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="s">
-        <v>108</v>
-      </c>
-      <c r="B113" t="n">
-        <v>0.518</v>
-      </c>
-      <c r="C113" t="n">
-        <v>0.00000000000000000000000181185962294833</v>
-      </c>
-      <c r="D113" t="n">
-        <v>10.292</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="s">
-        <v>1281</v>
-      </c>
-      <c r="B114" t="n">
-        <v>0.516</v>
-      </c>
-      <c r="C114" t="n">
-        <v>0.000000000000000000000000000000000000000000000432471980911275</v>
-      </c>
-      <c r="D114" t="n">
-        <v>14.338</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B115" t="n">
-        <v>0.514</v>
-      </c>
-      <c r="C115" t="n">
-        <v>0.00000000000000000000000000000000000249789332539784</v>
-      </c>
-      <c r="D115" t="n">
-        <v>12.681</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="s">
-        <v>555</v>
-      </c>
-      <c r="B116" t="n">
-        <v>0.513</v>
-      </c>
-      <c r="C116" t="n">
-        <v>0.000000000000000000000000000000000000000000297073335280794</v>
-      </c>
-      <c r="D116" t="n">
-        <v>13.879</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="s">
-        <v>1282</v>
-      </c>
-      <c r="B117" t="n">
-        <v>0.512</v>
-      </c>
-      <c r="C117" t="n">
-        <v>0.0000000000000000000000000000593922043927844</v>
-      </c>
-      <c r="D117" t="n">
-        <v>11.261</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="s">
-        <v>1283</v>
-      </c>
-      <c r="B118" t="n">
-        <v>0.504</v>
-      </c>
-      <c r="C118" t="n">
-        <v>0.0000000000000000000000303006488826259</v>
-      </c>
-      <c r="D118" t="n">
-        <v>10.023</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="s">
-        <v>728</v>
-      </c>
-      <c r="B119" t="n">
-        <v>0.504</v>
-      </c>
-      <c r="C119" t="n">
-        <v>0.00000000000000000000407184681680758</v>
-      </c>
-      <c r="D119" t="n">
-        <v>9.521</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="s">
-        <v>1284</v>
-      </c>
-      <c r="B120" t="n">
-        <v>0.504</v>
-      </c>
-      <c r="C120" t="n">
-        <v>0.0000000000000000000269484998212881</v>
-      </c>
-      <c r="D120" t="n">
-        <v>9.316</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
